--- a/T2/T2Armonicos.xlsx
+++ b/T2/T2Armonicos.xlsx
@@ -17,7 +17,6 @@
     <sheet name="Sistema2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
   <si>
     <t>Sistema 1 Fase A</t>
   </si>
@@ -116,20 +115,32 @@
     <t>Fase C</t>
   </si>
   <si>
-    <t>R mili</t>
-  </si>
-  <si>
-    <t>L mili</t>
-  </si>
-  <si>
-    <t>C micro</t>
+    <t>Ls</t>
+  </si>
+  <si>
+    <t>Rs</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>R ByPass</t>
+  </si>
+  <si>
+    <t>Q ByPass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +162,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +185,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -209,17 +232,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="174" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Buena" xfId="3" builtinId="26"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="2" builtinId="10"/>
@@ -1102,15 +1136,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="AC12" sqref="AC12:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1147,8 +1185,56 @@
       <c r="M1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1188,54 +1274,249 @@
       <c r="M2" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="10">
+        <v>13</v>
+      </c>
+      <c r="O2" s="10">
+        <v>13</v>
+      </c>
+      <c r="P2" s="10">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>9</v>
+      </c>
+      <c r="R2" s="2">
+        <v>15</v>
+      </c>
+      <c r="S2" s="2">
+        <v>15</v>
+      </c>
+      <c r="T2" s="2">
+        <v>15</v>
+      </c>
+      <c r="U2" s="10">
+        <v>17</v>
+      </c>
+      <c r="V2" s="10">
+        <v>17</v>
+      </c>
+      <c r="W2" s="10">
+        <v>17</v>
+      </c>
+      <c r="X2" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>25</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1">
+        <v>700</v>
+      </c>
+      <c r="C3" s="1">
+        <v>700</v>
+      </c>
+      <c r="D3" s="1">
+        <v>700</v>
+      </c>
+      <c r="E3" s="2">
         <v>500</v>
       </c>
-      <c r="C3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>500</v>
+      </c>
+      <c r="G3" s="2">
+        <v>500</v>
+      </c>
+      <c r="H3" s="1">
+        <v>250</v>
+      </c>
+      <c r="I3" s="1">
+        <v>350</v>
+      </c>
+      <c r="J3" s="1">
+        <v>350</v>
+      </c>
+      <c r="K3" s="2">
+        <v>200</v>
+      </c>
+      <c r="L3" s="2">
+        <v>200</v>
+      </c>
+      <c r="M3" s="2">
+        <v>150</v>
+      </c>
+      <c r="N3" s="10">
+        <v>100</v>
+      </c>
+      <c r="O3" s="10">
+        <v>100</v>
+      </c>
+      <c r="P3" s="10">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>250</v>
+      </c>
+      <c r="R3" s="2">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2">
+        <v>50</v>
+      </c>
+      <c r="T3" s="2">
+        <v>50</v>
+      </c>
+      <c r="U3" s="10">
+        <v>10</v>
+      </c>
+      <c r="V3" s="10">
+        <v>30</v>
+      </c>
+      <c r="W3" s="10">
+        <v>60</v>
+      </c>
+      <c r="X3" s="2">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>250</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>20</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>6</v>
+        <f>6/100</f>
+        <v>0.06</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <f>5/100</f>
+        <v>0.05</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <f>6/100</f>
+        <v>0.06</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="K4" s="2">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N4" s="10">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="O4" s="10">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="R4" s="2">
+        <f>2.5/100</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U4" s="10">
+        <f>2/100</f>
+        <v>0.02</v>
+      </c>
+      <c r="V4" s="10">
+        <f>1.5/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="W4" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="X4" s="2">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>0.75/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AA4" s="10">
+        <f>0.25/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AB4" s="10">
+        <f>0.75/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1248,17 +1529,83 @@
       <c r="D5" s="1">
         <v>232.59</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="2">
+        <v>230.03068767801099</v>
+      </c>
+      <c r="F5" s="2">
+        <v>585.46255785293101</v>
+      </c>
+      <c r="G5" s="2">
+        <v>222.57132003883899</v>
+      </c>
+      <c r="H5">
+        <v>222.850229898544</v>
+      </c>
+      <c r="I5">
+        <v>580.17431298450003</v>
+      </c>
+      <c r="J5">
+        <v>214.50870801561501</v>
+      </c>
+      <c r="K5" s="2">
+        <v>219.267064920221</v>
+      </c>
+      <c r="L5" s="2">
+        <v>578.26723962338099</v>
+      </c>
+      <c r="M5" s="2">
+        <v>212.258683135209</v>
+      </c>
+      <c r="N5" s="1">
+        <v>214.269818258817</v>
+      </c>
+      <c r="O5" s="1">
+        <v>572.973726710091</v>
+      </c>
+      <c r="P5" s="1">
+        <v>206.72691257630601</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>568.28153198030202</v>
+      </c>
+      <c r="R5" s="2">
+        <v>210.16468850195599</v>
+      </c>
+      <c r="S5" s="2">
+        <v>570.088046003263</v>
+      </c>
+      <c r="T5" s="2">
+        <v>205.01822498880699</v>
+      </c>
+      <c r="U5" s="1">
+        <v>205.03108982908901</v>
+      </c>
+      <c r="V5" s="1">
+        <v>565.25629211843602</v>
+      </c>
+      <c r="W5" s="1">
+        <v>200.39249905994501</v>
+      </c>
+      <c r="X5" s="2">
+        <v>204.09966004481001</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>557.73315961328399</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>196.61090672596899</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>196.444360257402</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>548.45492526836802</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>188.79364275039899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1271,84 +1618,979 @@
       <c r="D6" s="1">
         <v>50.42</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="2">
+        <v>29.0845160665958</v>
+      </c>
+      <c r="F6" s="2">
+        <v>104.90145010987101</v>
+      </c>
+      <c r="G6" s="2">
+        <v>34.562498232200603</v>
+      </c>
+      <c r="H6">
+        <v>23.0076849810422</v>
+      </c>
+      <c r="I6">
+        <v>74.348787010200795</v>
+      </c>
+      <c r="J6">
+        <v>21.198124828457399</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13.0723963235423</v>
+      </c>
+      <c r="L6" s="2">
+        <v>45.756655052597601</v>
+      </c>
+      <c r="M6" s="2">
+        <v>15.0774898204276</v>
+      </c>
+      <c r="N6" s="1">
+        <v>12.1061533994702</v>
+      </c>
+      <c r="O6" s="1">
+        <v>35.717434327525901</v>
+      </c>
+      <c r="P6" s="1">
+        <v>9.5640663746546704</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>60.9031301452722</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10.2660347252886</v>
+      </c>
+      <c r="S6" s="2">
+        <v>24.824753270590101</v>
+      </c>
+      <c r="T6" s="2">
+        <v>10.4397826135695</v>
+      </c>
+      <c r="U6" s="1">
+        <v>5.4114576262660696</v>
+      </c>
+      <c r="V6" s="1">
+        <v>21.777447429719999</v>
+      </c>
+      <c r="W6" s="1">
+        <v>9.6737803097919493</v>
+      </c>
+      <c r="X6" s="2">
+        <v>5.4141233802916702</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>14.532320408788999</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>6.3058757274383304</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>4.2687271560131297</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>7.8290267400047799</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>2.1046096892006401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6/B5</f>
+        <v>0.19551335213136506</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6/C5</f>
+        <v>0.27995818194282579</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D6/D5</f>
+        <v>0.21677630164667441</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" ref="E7:G7" si="0">E6/E5</f>
+        <v>0.12643754779061175</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.17917704335282597</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.15528729499456354</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" ref="H7" si="1">H6/H5</f>
+        <v>0.10324281465411457</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7" si="2">I6/I5</f>
+        <v>0.12814904994283519</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7" si="3">J6/J5</f>
+        <v>9.8821744928482322E-2</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7" si="4">K6/K5</f>
+        <v>5.9618604044791738E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" ref="L7" si="5">L6/L5</f>
+        <v>7.9127178434660078E-2</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7" si="6">M6/M5</f>
+        <v>7.1033559606243399E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f t="shared" ref="N7" si="7">N6/N5</f>
+        <v>5.6499573751666463E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7" si="8">O6/O5</f>
+        <v>6.2336949606064472E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" ref="P7:Q7" si="9">P6/P5</f>
+        <v>4.6264253915776106E-2</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="9"/>
+        <v>0.10717070099575794</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" ref="R7" si="10">R6/R5</f>
+        <v>4.8847571865970503E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" ref="S7" si="11">S6/S5</f>
+        <v>4.3545472396114775E-2</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7" si="12">T6/T5</f>
+        <v>5.0921241826864229E-2</v>
+      </c>
+      <c r="U7" s="10">
+        <f t="shared" ref="U7" si="13">U6/U5</f>
+        <v>2.6393351519406073E-2</v>
+      </c>
+      <c r="V7" s="10">
+        <f t="shared" ref="V7" si="14">V6/V5</f>
+        <v>3.8526678487918631E-2</v>
+      </c>
+      <c r="W7" s="10">
+        <f t="shared" ref="W7" si="15">W6/W5</f>
+        <v>4.8274163729542359E-2</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" ref="X7" si="16">X6/X5</f>
+        <v>2.6526861333835642E-2</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7" si="17">Y6/Y5</f>
+        <v>2.605604518631327E-2</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" ref="Z7" si="18">Z6/Z5</f>
+        <v>3.2072868349197384E-2</v>
+      </c>
+      <c r="AA7" s="10">
+        <f t="shared" ref="AA7" si="19">AA6/AA5</f>
+        <v>2.1729955242389222E-2</v>
+      </c>
+      <c r="AB7" s="10">
+        <f t="shared" ref="AB7" si="20">AB6/AB5</f>
+        <v>1.4274694928072545E-2</v>
+      </c>
+      <c r="AC7" s="10">
+        <f t="shared" ref="AC7" si="21">AC6/AC5</f>
+        <v>1.1147672445640081E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
+        <v>0</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
       <c r="B9" s="1">
-        <v>6.4</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="C9" s="1">
-        <v>3.3</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="D9" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="S9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="T9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="U9" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="V9" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="W9" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="X9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1">
-        <v>175</v>
+        <f>100*PI()</f>
+        <v>314.15926535897933</v>
       </c>
       <c r="C10" s="1">
-        <v>337</v>
+        <f t="shared" ref="C10:AC10" si="22">100*PI()</f>
+        <v>314.15926535897933</v>
       </c>
       <c r="D10" s="1">
-        <v>195</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="U10" s="10">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="V10" s="10">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="W10" s="10">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AA10" s="10">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AB10" s="10">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AC10" s="10">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(B4*B5/SQRT(2))*(B8*B4*(B5/SQRT(2))+SQRT((B8*(B6/SQRT(2)))^2+((B2*B10*B9)^2)*(((B6/SQRT(2))^2)-((B4*B5)^2))))/(((B6/SQRT(2))^2-(B4*B5)^2))</f>
+        <v>6.4208597353385306E-3</v>
+      </c>
+      <c r="C12" s="1">
+        <f>(C4*C5/SQRT(2))*(C8*C4*(C5/SQRT(2))+SQRT((C8*(C6/SQRT(2)))^2+((C2*C10*C9)^2)*(((C6/SQRT(2))^2)-((C4*C5)^2))))/(((C6/SQRT(2))^2-(C4*C5)^2))</f>
+        <v>3.4793040587356504E-3</v>
+      </c>
+      <c r="D12" s="1">
+        <f>(D4*D5/SQRT(2))*(D8*D4*(D5/SQRT(2))+SQRT((D8*(D6/SQRT(2)))^2+((D2*D10*D9)^2)*(((D6/SQRT(2))^2)-((D4*D5)^2))))/(((D6/SQRT(2))^2-(D4*D5)^2))</f>
+        <v>5.6696295166319384E-3</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:AC12" si="23">(E4*E5/SQRT(2))*(E8*E4*(E5/SQRT(2))+SQRT((E8*(E6/SQRT(2)))^2+((E2*E10*E9)^2)*(((E6/SQRT(2))^2)-((E4*E5)^2))))/(((E6/SQRT(2))^2-(E4*E5)^2))</f>
+        <v>2.0109177881197818E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="23"/>
+        <v>9.5411313568985866E-3</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="23"/>
+        <v>1.4493594663407791E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="23"/>
+        <v>4.4869262612818366E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="23"/>
+        <v>2.0576591310807822E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="23"/>
+        <v>5.2098241825993603E-2</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="23"/>
+        <v>3.5994463676834482E-2</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="23"/>
+        <v>1.8705187779828502E-2</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="23"/>
+        <v>2.8045475825502209E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="23"/>
+        <v>4.6335734250830124E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="23"/>
+        <v>2.9407805937914117E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <f t="shared" si="23"/>
+        <v>6.8434522438962767E-2</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="23"/>
+        <v>3.5109016979507281E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="23"/>
+        <v>6.9904586354378392E-2</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="23"/>
+        <v>5.6931759564611856E-2</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="23"/>
+        <v>6.4295046763091945E-2</v>
+      </c>
+      <c r="U12" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="23"/>
+        <v>4.98190849174934E-2</v>
+      </c>
+      <c r="W12" s="10">
+        <f t="shared" si="23"/>
+        <v>5.4608095800160746E-2</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="23"/>
+        <v>6.4392127968633556E-2</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="23"/>
+        <v>4.5540798369285949E-2</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="23"/>
+        <v>5.0201557175727989E-2</v>
+      </c>
+      <c r="AA12" s="10">
+        <f t="shared" si="23"/>
+        <v>1.8315842760808759E-2</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="23"/>
+        <v>0.12331742691092812</v>
+      </c>
+      <c r="AC12" s="10" t="e">
+        <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <f>(B12*B3)/(B2*B10)</f>
+        <v>4.7689206403012819E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <f>(C12*C3)/(C2*C10)</f>
+        <v>2.5841593841815402E-3</v>
+      </c>
+      <c r="D13" s="1">
+        <f>(D12*D3)/(D2*D10)</f>
+        <v>4.2109646276678693E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:G13" si="24">(E12*E3)/(E2*E10)</f>
+        <v>6.4009501226136786E-3</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="24"/>
+        <v>3.0370364362789855E-3</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="24"/>
+        <v>4.6134544677033295E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="25">(H12*H3)/(H2*H10)</f>
+        <v>5.1008320983702959E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="26">(I12*I3)/(I2*I10)</f>
+        <v>3.2748662190968066E-3</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13" si="27">(J12*J3)/(J2*J10)</f>
+        <v>8.2916927130038121E-3</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13" si="28">(K12*K3)/(K2*K10)</f>
+        <v>2.0831624793126858E-3</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" ref="L13" si="29">(L12*L3)/(L2*L10)</f>
+        <v>1.082553853317026E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" ref="M13" si="30">(M12*M3)/(M2*M10)</f>
+        <v>1.2173389388162538E-3</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" ref="N13" si="31">(N12*N3)/(N2*N10)</f>
+        <v>1.1345478688941622E-3</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13" si="32">(O12*O3)/(O2*O10)</f>
+        <v>7.20061181616342E-4</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" ref="P13:Q13" si="33">(P12*P3)/(P2*P10)</f>
+        <v>1.675645003737562E-3</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="33"/>
+        <v>3.1043186663254826E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" ref="R13" si="34">(R12*R3)/(R2*R10)</f>
+        <v>7.4171069753957181E-4</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" ref="S13" si="35">(S12*S3)/(S2*S10)</f>
+        <v>6.0406473024181794E-4</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" ref="T13" si="36">(T12*T3)/(T2*T10)</f>
+        <v>6.8219163391137658E-4</v>
+      </c>
+      <c r="U13" s="10" t="e">
+        <f t="shared" ref="U13" si="37">(U12*U3)/(U2*U10)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V13" s="10">
+        <f t="shared" ref="V13" si="38">(V12*V3)/(V2*V10)</f>
+        <v>2.7984542205649281E-4</v>
+      </c>
+      <c r="W13" s="10">
+        <f t="shared" ref="W13" si="39">(W12*W3)/(W2*W10)</f>
+        <v>6.1349282678338946E-4</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" ref="X13" si="40">(X12*X3)/(X2*X10)</f>
+        <v>2.2278968396551989E-4</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" ref="Y13" si="41">(Y12*Y3)/(Y2*Y10)</f>
+        <v>1.575661559309388E-4</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" ref="Z13" si="42">(Z12*Z3)/(Z2*Z10)</f>
+        <v>1.7369186903103297E-4</v>
+      </c>
+      <c r="AA13" s="10">
+        <f t="shared" ref="AA13" si="43">(AA12*AA3)/(AA2*AA10)</f>
+        <v>5.8301138245532428E-4</v>
+      </c>
+      <c r="AB13" s="10">
+        <f t="shared" ref="AB13" si="44">(AB12*AB3)/(AB2*AB10)</f>
+        <v>3.1402524899596361E-4</v>
+      </c>
+      <c r="AC13" s="10" t="e">
+        <f t="shared" ref="AC13" si="45">(AC12*AC3)/(AC2*AC10)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <f>1/(B13*(B2*B10)^2)</f>
+        <v>2.3606828762161693E-4</v>
+      </c>
+      <c r="C14" s="1">
+        <f>1/(C13*(C2*C10)^2)</f>
+        <v>4.3565073278785832E-4</v>
+      </c>
+      <c r="D14" s="1">
+        <f>1/(D13*(D2*D10)^2)</f>
+        <v>2.6734751509484847E-4</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" ref="E14:G14" si="46">1/(E13*(E2*E10)^2)</f>
+        <v>6.3316340044196836E-5</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="46"/>
+        <v>1.3344743899941844E-4</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="46"/>
+        <v>8.7848430586356246E-5</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" ref="H14" si="47">1/(H13*(H2*H10)^2)</f>
+        <v>4.053807728091156E-5</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" ref="I14" si="48">1/(I13*(I2*I10)^2)</f>
+        <v>6.3140877204357298E-5</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" ref="J14" si="49">1/(J13*(J2*J10)^2)</f>
+        <v>2.4937962965800783E-5</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" ref="K14" si="50">1/(K13*(K2*K10)^2)</f>
+        <v>4.0196823934021006E-5</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" ref="L14" si="51">1/(L13*(L2*L10)^2)</f>
+        <v>7.735090051207685E-5</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" ref="M14" si="52">1/(M13*(M2*M10)^2)</f>
+        <v>6.8786525048082758E-5</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" ref="N14" si="53">1/(N13*(N2*N10)^2)</f>
+        <v>5.2843396691944994E-5</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" ref="O14" si="54">1/(O13*(O2*O10)^2)</f>
+        <v>8.3261484763552977E-5</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14:Q14" si="55">1/(P13*(P2*P10)^2)</f>
+        <v>3.5779274827453158E-5</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="55"/>
+        <v>4.0294793958117422E-5</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" ref="R14" si="56">1/(R13*(R2*R10)^2)</f>
+        <v>6.0713209778088475E-5</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" ref="S14" si="57">1/(S13*(S2*S10)^2)</f>
+        <v>7.4547701462963049E-5</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" ref="T14" si="58">1/(T13*(T2*T10)^2)</f>
+        <v>6.6010245414739881E-5</v>
+      </c>
+      <c r="U14" s="11" t="e">
+        <f t="shared" ref="U14" si="59">1/(U13*(U2*U10)^2)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="V14" s="11">
+        <f t="shared" ref="V14" si="60">1/(V13*(V2*V10)^2)</f>
+        <v>1.2528070974538602E-4</v>
+      </c>
+      <c r="W14" s="11">
+        <f t="shared" ref="W14" si="61">1/(W13*(W2*W10)^2)</f>
+        <v>5.714693239047952E-5</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" ref="X14" si="62">1/(X13*(X2*X10)^2)</f>
+        <v>8.5970510405259079E-5</v>
+      </c>
+      <c r="Y14" s="9">
+        <f t="shared" ref="Y14" si="63">1/(Y13*(Y2*Y10)^2)</f>
+        <v>1.2155746727702754E-4</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" ref="Z14" si="64">1/(Z13*(Z2*Z10)^2)</f>
+        <v>1.1027196005427314E-4</v>
+      </c>
+      <c r="AA14" s="11">
+        <f t="shared" ref="AA14" si="65">1/(AA13*(AA2*AA10)^2)</f>
+        <v>2.7806299963648329E-5</v>
+      </c>
+      <c r="AB14" s="11">
+        <f t="shared" ref="AB14" si="66">1/(AB13*(AB2*AB10)^2)</f>
+        <v>5.1624477441246836E-5</v>
+      </c>
+      <c r="AC14" s="11" t="e">
+        <f t="shared" ref="AC14" si="67">1/(AC13*(AC2*AC10)^2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W15" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15">
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="W16" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16">
+        <f>((X15*X3-1)*X12)/(1-X15/X3)</f>
+        <v>3.4295807287641784</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" ref="Y16:Z16" si="68">((Y15*Y3-1)*Y12)/(1-Y15/Y3)</f>
+        <v>2.425542521842404</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="68"/>
+        <v>2.6737785887072514</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>214.269818258817</v>
+      </c>
+      <c r="N17">
+        <v>572.973726710091</v>
+      </c>
+      <c r="O17">
+        <v>206.72691257630601</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>230.03068767801099</v>
+      </c>
+      <c r="G18">
+        <v>222.850229898544</v>
+      </c>
+      <c r="H18">
+        <v>580.17431298450003</v>
+      </c>
+      <c r="I18">
+        <v>214.50870801561501</v>
+      </c>
+      <c r="M18">
+        <v>12.1061533994702</v>
+      </c>
+      <c r="N18">
+        <v>35.717434327525901</v>
+      </c>
+      <c r="O18">
+        <v>9.5640663746546704</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>16.8351888975427</v>
+      </c>
+      <c r="H19">
+        <v>26.429212311841798</v>
+      </c>
+      <c r="I19">
+        <v>20.9174497234822</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>230.03068767801099</v>
+      </c>
+      <c r="C20">
+        <v>585.46255785293101</v>
+      </c>
+      <c r="D20">
+        <v>222.57132003883899</v>
+      </c>
+      <c r="G20">
+        <v>23.0076849810422</v>
+      </c>
+      <c r="H20">
+        <v>74.348787010200795</v>
+      </c>
+      <c r="I20">
+        <v>21.198124828457399</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>29.0845160665958</v>
+      </c>
+      <c r="C22">
+        <v>104.90145010987101</v>
+      </c>
+      <c r="D22">
+        <v>34.562498232200603</v>
+      </c>
+      <c r="J22">
+        <v>219.267064920221</v>
+      </c>
+      <c r="K22">
+        <v>578.26723962338099</v>
+      </c>
+      <c r="L22">
+        <v>212.258683135209</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>13.0723963235423</v>
+      </c>
+      <c r="K23">
+        <v>45.756655052597601</v>
+      </c>
+      <c r="L23">
+        <v>15.0774898204276</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/T2/T2Armonicos.xlsx
+++ b/T2/T2Armonicos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
   <si>
     <t>Sistema 1 Fase A</t>
   </si>
@@ -132,15 +132,19 @@
   <si>
     <t>Q ByPass</t>
   </si>
+  <si>
+    <t xml:space="preserve">la wea </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +168,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,11 +201,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -231,30 +248,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="4"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="174" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Buena" xfId="3" builtinId="26"/>
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
@@ -1136,19 +1174,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC23"/>
+  <dimension ref="A1:AT17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12:AC14"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1194,47 +1233,98 @@
       <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1274,56 +1364,107 @@
       <c r="M2" s="2">
         <v>11</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="5">
         <v>13</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="5">
         <v>13</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="5">
         <v>13</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="12">
         <v>9</v>
       </c>
-      <c r="R2" s="2">
-        <v>15</v>
-      </c>
-      <c r="S2" s="2">
-        <v>15</v>
+      <c r="R2" s="12">
+        <v>9</v>
+      </c>
+      <c r="S2" s="12">
+        <v>9</v>
       </c>
       <c r="T2" s="2">
         <v>15</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="2">
+        <v>15</v>
+      </c>
+      <c r="V2" s="2">
+        <v>15</v>
+      </c>
+      <c r="W2" s="5">
         <v>17</v>
       </c>
-      <c r="V2" s="10">
+      <c r="X2" s="5">
         <v>17</v>
       </c>
-      <c r="W2" s="10">
+      <c r="Y2" s="5">
         <v>17</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Z2" s="8">
+        <v>19</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>19</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>21</v>
+      </c>
+      <c r="AE2" s="11">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="2">
         <v>23</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AG2" s="2">
         <v>23</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="AH2" s="2">
         <v>23</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AI2" s="5">
         <v>25</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AJ2" s="5">
         <v>25</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AK2" s="5">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AL2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AO2" s="5">
+        <v>29</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="5">
+        <v>29</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1337,22 +1478,22 @@
         <v>700</v>
       </c>
       <c r="E3" s="2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="F3" s="2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="G3" s="2">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="H3" s="1">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="I3" s="1">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="J3" s="1">
-        <v>350</v>
+        <v>700</v>
       </c>
       <c r="K3" s="2">
         <v>200</v>
@@ -1361,58 +1502,109 @@
         <v>200</v>
       </c>
       <c r="M3" s="2">
-        <v>150</v>
-      </c>
-      <c r="N3" s="10">
-        <v>100</v>
-      </c>
-      <c r="O3" s="10">
-        <v>100</v>
-      </c>
-      <c r="P3" s="10">
-        <v>100</v>
-      </c>
-      <c r="Q3" s="4">
+        <v>300</v>
+      </c>
+      <c r="N3" s="5">
+        <v>200</v>
+      </c>
+      <c r="O3" s="5">
+        <v>200</v>
+      </c>
+      <c r="P3" s="5">
+        <v>200</v>
+      </c>
+      <c r="Q3" s="12">
         <v>250</v>
       </c>
-      <c r="R3" s="2">
-        <v>50</v>
-      </c>
-      <c r="S3" s="2">
-        <v>50</v>
+      <c r="R3" s="12">
+        <v>250</v>
+      </c>
+      <c r="S3" s="12">
+        <v>250</v>
       </c>
       <c r="T3" s="2">
         <v>50</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="2">
+        <v>100</v>
+      </c>
+      <c r="V3" s="2">
+        <v>50</v>
+      </c>
+      <c r="W3" s="5">
+        <v>60</v>
+      </c>
+      <c r="X3" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>60</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>25</v>
+      </c>
+      <c r="AI3" s="5">
         <v>10</v>
       </c>
-      <c r="V3" s="10">
-        <v>30</v>
-      </c>
-      <c r="W3" s="10">
-        <v>60</v>
-      </c>
-      <c r="X3" s="2">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>25</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>250</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>20</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AJ3" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>50</v>
+      </c>
+      <c r="AP3" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1428,23 +1620,23 @@
         <f>6/100</f>
         <v>0.06</v>
       </c>
-      <c r="E4" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.06</v>
+      <c r="E4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.04</v>
       </c>
       <c r="H4" s="1">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I4" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="J4" s="1">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="K4" s="2">
         <f>2.5/100</f>
@@ -1455,68 +1647,125 @@
         <v>0.02</v>
       </c>
       <c r="M4" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="N4" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <f>1.5/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="2">
         <f>2.5/100</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="O4" s="10">
+      <c r="U4" s="2">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="X4" s="5">
+        <f>0.75/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="Z4" s="8">
+        <f>1/100</f>
+        <v>0.01</v>
+      </c>
+      <c r="AA4" s="8">
+        <f>0.5/100</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="AC4" s="5">
         <f>2/100</f>
         <v>0.02</v>
       </c>
-      <c r="P4" s="10">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="R4" s="2">
-        <f>2.5/100</f>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="S4" s="2">
-        <f>2/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="T4" s="2">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="U4" s="10">
-        <f>2/100</f>
-        <v>0.02</v>
-      </c>
-      <c r="V4" s="10">
+      <c r="AD4" s="5">
         <f>1.5/100</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="W4" s="10">
+      <c r="AE4" s="5">
         <v>0.02</v>
       </c>
-      <c r="X4" s="2">
+      <c r="AF4" s="2">
         <f>1/100</f>
         <v>0.01</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AG4" s="2">
         <f>0.75/100</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="AH4" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="AI4" s="5">
+        <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="AA4" s="10">
-        <f>0.25/100</f>
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="AB4" s="10">
+      <c r="AJ4" s="5">
         <f>0.75/100</f>
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="AC4" s="10">
+      <c r="AK4" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AL4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AM4" s="2">
+        <f>0.75/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AP4" s="5">
+        <f>0.75/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="AS4" s="2">
+        <f>0.75/100</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1538,13 +1787,13 @@
       <c r="G5" s="2">
         <v>222.57132003883899</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>222.850229898544</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>580.17431298450003</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>214.50870801561501</v>
       </c>
       <c r="K5" s="2">
@@ -1565,47 +1814,98 @@
       <c r="P5" s="1">
         <v>206.72691257630601</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="12">
+        <v>191.053657117065</v>
+      </c>
+      <c r="R5" s="12">
         <v>568.28153198030202</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="12">
+        <v>186.410464089024</v>
+      </c>
+      <c r="T5" s="2">
         <v>210.16468850195599</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>570.088046003263</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <v>205.01822498880699</v>
       </c>
-      <c r="U5" s="1">
+      <c r="W5" s="1">
         <v>205.03108982908901</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <v>565.25629211843602</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <v>200.39249905994501</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Z5" s="8">
+        <v>191.053657117065</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>543.20311201134098</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>186.410464089024</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>191.053657117065</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>543.20311201134098</v>
+      </c>
+      <c r="AE5" s="11">
+        <v>186.410464089024</v>
+      </c>
+      <c r="AF5" s="2">
         <v>204.09966004481001</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AG5" s="2">
         <v>557.73315961328399</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="AH5" s="2">
         <v>196.61090672596899</v>
       </c>
-      <c r="AA5" s="1">
-        <v>196.444360257402</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>548.45492526836802</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>188.79364275039899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI5" s="1">
+        <v>150.311786680305</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>507.96712138230401</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>165.92484303021899</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>140.63430671886101</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>489.179319936225</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>137.16105471839199</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>140.63430671886101</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>489.179319936225</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>137.16105471839199</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>140.63430671886101</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>489.179319936225</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>137.16105471839199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1627,13 +1927,13 @@
       <c r="G6" s="2">
         <v>34.562498232200603</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>23.0076849810422</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>74.348787010200795</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>21.198124828457399</v>
       </c>
       <c r="K6" s="2">
@@ -1654,47 +1954,98 @@
       <c r="P6" s="1">
         <v>9.5640663746546704</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="12">
+        <v>18.0769178745213</v>
+      </c>
+      <c r="R6" s="12">
         <v>60.9031301452722</v>
       </c>
-      <c r="R6" s="2">
+      <c r="S6" s="12">
+        <v>19.793720009354601</v>
+      </c>
+      <c r="T6" s="2">
         <v>10.2660347252886</v>
       </c>
-      <c r="S6" s="2">
+      <c r="U6" s="2">
         <v>24.824753270590101</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <v>10.4397826135695</v>
       </c>
-      <c r="U6" s="1">
-        <v>5.4114576262660696</v>
-      </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
+        <v>13.411457626265999</v>
+      </c>
+      <c r="X6" s="1">
         <v>21.777447429719999</v>
       </c>
-      <c r="W6" s="1">
-        <v>9.6737803097919493</v>
-      </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="1">
+        <v>12.6737803097919</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>10.426221956027801</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>21.0954902737748</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>7.4964576822648699</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>6.3185533838306398</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>23.990214318163499</v>
+      </c>
+      <c r="AE6" s="11">
+        <v>6.9806479252112901</v>
+      </c>
+      <c r="AF6" s="2">
         <v>5.4141233802916702</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AG6" s="2">
         <v>14.532320408788999</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="AH6" s="2">
         <v>6.3058757274383304</v>
       </c>
-      <c r="AA6" s="1">
-        <v>4.2687271560131297</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>7.8290267400047799</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>2.1046096892006401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI6" s="1">
+        <v>3.2763185070594401</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>5.4155992491036802</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>2.77016029529663</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3.1637681413461398</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>3.5086224505769099</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>2.5216887949302902</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>2.4322967450625099</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>5.3651768979741004</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>2.8939695100956699</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>3.3926461004271502</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>5.2799142027828303</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>1.1943289278765801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1755,63 +2106,131 @@
         <v>6.2336949606064472E-2</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" ref="P7:Q7" si="9">P6/P5</f>
+        <f t="shared" ref="P7:S7" si="9">P6/P5</f>
         <v>4.6264253915776106E-2</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="12">
+        <f t="shared" si="9"/>
+        <v>9.4616968590373357E-2</v>
+      </c>
+      <c r="R7" s="12">
         <f t="shared" si="9"/>
         <v>0.10717070099575794</v>
       </c>
-      <c r="R7" s="2">
-        <f t="shared" ref="R7" si="10">R6/R5</f>
+      <c r="S7" s="12">
+        <f t="shared" si="9"/>
+        <v>0.10618352411751798</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7" si="10">T6/T5</f>
         <v>4.8847571865970503E-2</v>
       </c>
-      <c r="S7" s="2">
-        <f t="shared" ref="S7" si="11">S6/S5</f>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7" si="11">U6/U5</f>
         <v>4.3545472396114775E-2</v>
       </c>
-      <c r="T7" s="2">
-        <f t="shared" ref="T7" si="12">T6/T5</f>
+      <c r="V7" s="2">
+        <f t="shared" ref="V7" si="12">V6/V5</f>
         <v>5.0921241826864229E-2</v>
       </c>
-      <c r="U7" s="10">
-        <f t="shared" ref="U7" si="13">U6/U5</f>
-        <v>2.6393351519406073E-2</v>
-      </c>
-      <c r="V7" s="10">
-        <f t="shared" ref="V7" si="14">V6/V5</f>
+      <c r="W7" s="5">
+        <f t="shared" ref="W7" si="13">W6/W5</f>
+        <v>6.5411824311354921E-2</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" ref="X7" si="14">X6/X5</f>
         <v>3.8526678487918631E-2</v>
       </c>
-      <c r="W7" s="10">
-        <f t="shared" ref="W7" si="15">W6/W5</f>
-        <v>4.8274163729542359E-2</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" ref="X7" si="16">X6/X5</f>
+      <c r="Y7" s="5">
+        <f t="shared" ref="Y7:AE7" si="15">Y6/Y5</f>
+        <v>6.3244783957710368E-2</v>
+      </c>
+      <c r="Z7" s="8">
+        <f t="shared" si="15"/>
+        <v>5.4572218681159836E-2</v>
+      </c>
+      <c r="AA7" s="8">
+        <f t="shared" si="15"/>
+        <v>3.8835363434615904E-2</v>
+      </c>
+      <c r="AB7" s="8">
+        <f t="shared" si="15"/>
+        <v>4.0214790081123282E-2</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="15"/>
+        <v>3.3072140461352435E-2</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="15"/>
+        <v>4.4164353604923073E-2</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="15"/>
+        <v>3.744772569139436E-2</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" ref="AF7" si="16">AF6/AF5</f>
         <v>2.6526861333835642E-2</v>
       </c>
-      <c r="Y7" s="2">
-        <f t="shared" ref="Y7" si="17">Y6/Y5</f>
+      <c r="AG7" s="2">
+        <f t="shared" ref="AG7" si="17">AG6/AG5</f>
         <v>2.605604518631327E-2</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7" si="18">Z6/Z5</f>
+      <c r="AH7" s="2">
+        <f t="shared" ref="AH7" si="18">AH6/AH5</f>
         <v>3.2072868349197384E-2</v>
       </c>
-      <c r="AA7" s="10">
-        <f t="shared" ref="AA7" si="19">AA6/AA5</f>
-        <v>2.1729955242389222E-2</v>
-      </c>
-      <c r="AB7" s="10">
-        <f t="shared" ref="AB7" si="20">AB6/AB5</f>
-        <v>1.4274694928072545E-2</v>
-      </c>
-      <c r="AC7" s="10">
-        <f t="shared" ref="AC7" si="21">AC6/AC5</f>
-        <v>1.1147672445640081E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AI7" s="5">
+        <f t="shared" ref="AI7" si="19">AI6/AI5</f>
+        <v>2.1796816998974095E-2</v>
+      </c>
+      <c r="AJ7" s="5">
+        <f t="shared" ref="AJ7" si="20">AJ6/AJ5</f>
+        <v>1.0661318461648653E-2</v>
+      </c>
+      <c r="AK7" s="5">
+        <f t="shared" ref="AK7:AT7" si="21">AK6/AK5</f>
+        <v>1.6695271453667223E-2</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" si="21"/>
+        <v>2.2496417944952506E-2</v>
+      </c>
+      <c r="AM7" s="2">
+        <f t="shared" si="21"/>
+        <v>7.1724668390199609E-3</v>
+      </c>
+      <c r="AN7" s="2">
+        <f t="shared" si="21"/>
+        <v>1.8384874628644538E-2</v>
+      </c>
+      <c r="AO7" s="5">
+        <f t="shared" si="21"/>
+        <v>1.7295187794574632E-2</v>
+      </c>
+      <c r="AP7" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0967709956899989E-2</v>
+      </c>
+      <c r="AQ7" s="5">
+        <f t="shared" si="21"/>
+        <v>2.1099061362843372E-2</v>
+      </c>
+      <c r="AR7" s="2">
+        <f t="shared" si="21"/>
+        <v>2.4123886835161177E-2</v>
+      </c>
+      <c r="AS7" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0793412533201895E-2</v>
+      </c>
+      <c r="AT7" s="2">
+        <f t="shared" si="21"/>
+        <v>8.7074930294804148E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1851,56 +2270,107 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
-      <c r="O8" s="10">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>0</v>
+      </c>
+      <c r="R8" s="12">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12">
         <v>0</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
       </c>
-      <c r="U8" s="10">
-        <v>0</v>
-      </c>
-      <c r="V8" s="10">
-        <v>0</v>
-      </c>
-      <c r="W8" s="10">
-        <v>0</v>
-      </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="8">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1949,47 +2419,98 @@
       <c r="P9" s="1">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="Q9" s="6">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="R9" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="Q9" s="12">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R9" s="12">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="S9" s="12">
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="T9" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="U9" s="10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="V9" s="10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="W9" s="10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="X9" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AB9" s="10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="AC9" s="10">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="W9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="X9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="Z9" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AB9" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AO9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AP9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AQ9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1998,7 +2519,7 @@
         <v>314.15926535897933</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:AC10" si="22">100*PI()</f>
+        <f t="shared" ref="C10:AT10" si="22">100*PI()</f>
         <v>314.15926535897933</v>
       </c>
       <c r="D10" s="1">
@@ -2053,15 +2574,15 @@
         <f t="shared" si="22"/>
         <v>314.15926535897933</v>
       </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="Q10" s="12">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="R10" s="12">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="S10" s="12">
         <f t="shared" si="22"/>
         <v>314.15926535897933</v>
       </c>
@@ -2069,52 +2590,141 @@
         <f t="shared" si="22"/>
         <v>314.15926535897933</v>
       </c>
-      <c r="U10" s="10">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="V10" s="10">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="W10" s="10">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="X10" s="2">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="Y10" s="2">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="Z10" s="2">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="AA10" s="10">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="AB10" s="10">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-      <c r="AC10" s="10">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="U10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="Z10" s="8">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AB10" s="8">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AC10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AD10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AE10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AG10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AI10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AJ10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AK10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AO10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AP10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AQ10" s="5">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AR10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AS10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AT10" s="2">
+        <f t="shared" si="22"/>
+        <v>314.15926535897933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+    </row>
+    <row r="12" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -2131,28 +2741,28 @@
         <v>5.6696295166319384E-3</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:AC12" si="23">(E4*E5/SQRT(2))*(E8*E4*(E5/SQRT(2))+SQRT((E8*(E6/SQRT(2)))^2+((E2*E10*E9)^2)*(((E6/SQRT(2))^2)-((E4*E5)^2))))/(((E6/SQRT(2))^2-(E4*E5)^2))</f>
-        <v>2.0109177881197818E-2</v>
+        <f t="shared" ref="E12:AK12" si="23">(E4*E5/SQRT(2))*(E8*E4*(E5/SQRT(2))+SQRT((E8*(E6/SQRT(2)))^2+((E2*E10*E9)^2)*(((E6/SQRT(2))^2)-((E4*E5)^2))))/(((E6/SQRT(2))^2-(E4*E5)^2))</f>
+        <v>1.111308951006937E-2</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" si="23"/>
-        <v>9.5411313568985866E-3</v>
+        <v>5.4139992383481416E-3</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="23"/>
-        <v>1.4493594663407791E-2</v>
+        <v>8.6894005519754375E-3</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="23"/>
-        <v>4.4869262612818366E-2</v>
+        <v>4.3006211986641287E-3</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="23"/>
-        <v>2.0576591310807822E-2</v>
+        <v>1.0911717532132903E-2</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="23"/>
-        <v>5.2098241825993603E-2</v>
+        <v>2.1711815984089493E-2</v>
       </c>
       <c r="K12" s="2">
         <f t="shared" si="23"/>
@@ -2164,74 +2774,142 @@
       </c>
       <c r="M12" s="2">
         <f t="shared" si="23"/>
-        <v>2.8045475825502209E-2</v>
+        <v>1.5292723303209818E-2</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="23"/>
-        <v>4.6335734250830124E-2</v>
+        <v>2.3397247613411741E-2</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" si="23"/>
-        <v>2.9407805937914117E-2</v>
+        <v>1.3454009318367986E-2</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" si="23"/>
-        <v>6.8434522438962767E-2</v>
-      </c>
-      <c r="Q12" s="6">
+        <v>2.9800404150347879E-2</v>
+      </c>
+      <c r="Q12" s="12">
+        <f t="shared" si="23"/>
+        <v>8.1051420571229355E-2</v>
+      </c>
+      <c r="R12" s="12">
         <f t="shared" si="23"/>
         <v>3.5109016979507281E-2</v>
       </c>
-      <c r="R12" s="2">
+      <c r="S12" s="12">
+        <f t="shared" si="23"/>
+        <v>5.3151188071665932E-2</v>
+      </c>
+      <c r="T12" s="2">
         <f t="shared" si="23"/>
         <v>6.9904586354378392E-2</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <f t="shared" si="23"/>
-        <v>5.6931759564611856E-2</v>
-      </c>
-      <c r="T12" s="2">
+        <v>2.2883979631801436E-2</v>
+      </c>
+      <c r="V12" s="2">
         <f t="shared" si="23"/>
         <v>6.4295046763091945E-2</v>
       </c>
-      <c r="U12" s="10" t="e">
+      <c r="W12" s="5">
         <f t="shared" si="23"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="V12" s="10">
+        <v>1.6725054761003583E-2</v>
+      </c>
+      <c r="X12" s="5">
         <f t="shared" si="23"/>
-        <v>4.98190849174934E-2</v>
-      </c>
-      <c r="W12" s="10">
-        <f t="shared" si="23"/>
-        <v>5.4608095800160746E-2</v>
-      </c>
-      <c r="X12" s="2">
+        <v>2.1629369978726946E-2</v>
+      </c>
+      <c r="Y12" s="5">
+        <f>(Y4*Y5/SQRT(2))*(Y8*Y4*(Y5/SQRT(2))+SQRT((Y8*(Y6/SQRT(2)))^2+((Y2*Y10*Y9)^2)*(((Y6/SQRT(2))^2)-((Y4*Y5)^2))))/(((Y6/SQRT(2))^2-(Y4*Y5)^2))</f>
+        <v>1.7327765093193847E-2</v>
+      </c>
+      <c r="Z12" s="8">
+        <f t="shared" ref="Z12:AE12" si="24">(Z4*Z5/SQRT(2))*(Z8*Z4*(Z5/SQRT(2))+SQRT((Z8*(Z6/SQRT(2)))^2+((Z2*Z10*Z9)^2)*(((Z6/SQRT(2))^2)-((Z4*Z5)^2))))/(((Z6/SQRT(2))^2-(Z4*Z5)^2))</f>
+        <v>2.2649437336023422E-2</v>
+      </c>
+      <c r="AA12" s="8">
+        <f t="shared" si="24"/>
+        <v>1.5631371794014116E-2</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="24"/>
+        <v>8.3520193059027192E-2</v>
+      </c>
+      <c r="AC12" s="5">
+        <f t="shared" si="24"/>
+        <v>0.15396714010576229</v>
+      </c>
+      <c r="AD12" s="5">
+        <f t="shared" si="24"/>
+        <v>5.109446436701514E-2</v>
+      </c>
+      <c r="AE12" s="5">
+        <f t="shared" si="24"/>
+        <v>0.10752541639092508</v>
+      </c>
+      <c r="AF12" s="2">
         <f t="shared" si="23"/>
         <v>6.4392127968633556E-2</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AG12" s="2">
         <f t="shared" si="23"/>
         <v>4.5540798369285949E-2</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AH12" s="2">
         <f t="shared" si="23"/>
-        <v>5.0201557175727989E-2</v>
-      </c>
-      <c r="AA12" s="10">
+        <v>9.0468056887397907E-3</v>
+      </c>
+      <c r="AI12" s="5">
         <f t="shared" si="23"/>
-        <v>1.8315842760808759E-2</v>
-      </c>
-      <c r="AB12" s="10">
+        <v>9.4705152978359936E-2</v>
+      </c>
+      <c r="AJ12" s="5">
         <f t="shared" si="23"/>
-        <v>0.12331742691092812</v>
-      </c>
-      <c r="AC12" s="10" t="e">
-        <f t="shared" si="23"/>
+        <v>1.0920901928631646</v>
+      </c>
+      <c r="AK12" s="5">
+        <f>(AK4*AK5/SQRT(2))*(AK8*AK4*(AK5/SQRT(2))+SQRT((AK8*(AK6/SQRT(2)))^2+((AK2*AK10*AK9)^2)*(((AK6/SQRT(2))^2)-((AK4*AK5)^2))))/(((AK6/SQRT(2))^2-(AK4*AK5)^2))</f>
+        <v>0.17702882626170405</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" ref="AL12:AT12" si="25">(AL4*AL5/SQRT(2))*(AL8*AL4*(AL5/SQRT(2))+SQRT((AL8*(AL6/SQRT(2)))^2+((AL2*AL10*AL9)^2)*(((AL6/SQRT(2))^2)-((AL4*AL5)^2))))/(((AL6/SQRT(2))^2-(AL4*AL5)^2))</f>
+        <v>9.6966093339383899E-2</v>
+      </c>
+      <c r="AM12" s="2" t="e">
+        <f t="shared" si="25"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AN12" s="2">
+        <f t="shared" si="25"/>
+        <v>0.14441037671333087</v>
+      </c>
+      <c r="AO12" s="5">
+        <f t="shared" si="25"/>
+        <v>0.18301618846825241</v>
+      </c>
+      <c r="AP12" s="5">
+        <f t="shared" si="25"/>
+        <v>0.48961189084908074</v>
+      </c>
+      <c r="AQ12" s="5">
+        <f t="shared" si="25"/>
+        <v>7.4925915076742802E-2</v>
+      </c>
+      <c r="AR12" s="2">
+        <f t="shared" si="25"/>
+        <v>9.9662443427843389E-2</v>
+      </c>
+      <c r="AS12" s="2">
+        <f t="shared" si="25"/>
+        <v>0.73062543363171706</v>
+      </c>
+      <c r="AT12" s="2" t="e">
+        <f t="shared" si="25"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -2248,107 +2926,175 @@
         <v>4.2109646276678693E-3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:G13" si="24">(E12*E3)/(E2*E10)</f>
-        <v>6.4009501226136786E-3</v>
+        <f t="shared" ref="E13:G13" si="26">(E12*E3)/(E2*E10)</f>
+        <v>4.9523687599406429E-3</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="24"/>
-        <v>3.0370364362789855E-3</v>
+        <f t="shared" si="26"/>
+        <v>2.4126612739008169E-3</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="24"/>
-        <v>4.6134544677033295E-3</v>
+        <f t="shared" si="26"/>
+        <v>3.8722909409865365E-3</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13" si="25">(H12*H3)/(H2*H10)</f>
-        <v>5.1008320983702959E-3</v>
+        <f t="shared" ref="H13" si="27">(H12*H3)/(H2*H10)</f>
+        <v>1.3689302442663762E-3</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13" si="26">(I12*I3)/(I2*I10)</f>
-        <v>3.2748662190968066E-3</v>
+        <f t="shared" ref="I13" si="28">(I12*I3)/(I2*I10)</f>
+        <v>3.4733075657228975E-3</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ref="J13" si="27">(J12*J3)/(J2*J10)</f>
-        <v>8.2916927130038121E-3</v>
+        <f t="shared" ref="J13" si="29">(J12*J3)/(J2*J10)</f>
+        <v>6.9110856747389331E-3</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13" si="28">(K12*K3)/(K2*K10)</f>
+        <f t="shared" ref="K13" si="30">(K12*K3)/(K2*K10)</f>
         <v>2.0831624793126858E-3</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13" si="29">(L12*L3)/(L2*L10)</f>
+        <f t="shared" ref="L13" si="31">(L12*L3)/(L2*L10)</f>
         <v>1.082553853317026E-3</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13" si="30">(M12*M3)/(M2*M10)</f>
-        <v>1.2173389388162538E-3</v>
+        <f t="shared" ref="M13" si="32">(M12*M3)/(M2*M10)</f>
+        <v>1.3275886402049784E-3</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13" si="31">(N12*N3)/(N2*N10)</f>
-        <v>1.1345478688941622E-3</v>
+        <f t="shared" ref="N13" si="33">(N12*N3)/(N2*N10)</f>
+        <v>1.1457808038213937E-3</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ref="O13" si="32">(O12*O3)/(O2*O10)</f>
-        <v>7.20061181616342E-4</v>
+        <f t="shared" ref="O13" si="34">(O12*O3)/(O2*O10)</f>
+        <v>6.5885294997621111E-4</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ref="P13:Q13" si="33">(P12*P3)/(P2*P10)</f>
-        <v>1.675645003737562E-3</v>
-      </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="P13:S13" si="35">(P12*P3)/(P2*P10)</f>
+        <v>1.4593481928197227E-3</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="35"/>
+        <v>7.1665190158507136E-3</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="35"/>
         <v>3.1043186663254826E-3</v>
       </c>
-      <c r="R13" s="2">
-        <f t="shared" ref="R13" si="34">(R12*R3)/(R2*R10)</f>
-        <v>7.4171069753957181E-4</v>
-      </c>
-      <c r="S13" s="2">
-        <f t="shared" ref="S13" si="35">(S12*S3)/(S2*S10)</f>
-        <v>6.0406473024181794E-4</v>
+      <c r="S13" s="12">
+        <f t="shared" si="35"/>
+        <v>4.6995968404514544E-3</v>
       </c>
       <c r="T13" s="2">
         <f t="shared" ref="T13" si="36">(T12*T3)/(T2*T10)</f>
+        <v>7.4171069753957181E-4</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" ref="U13" si="37">(U12*U3)/(U2*U10)</f>
+        <v>4.8561313013539327E-4</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" ref="V13" si="38">(V12*V3)/(V2*V10)</f>
         <v>6.8219163391137658E-4</v>
       </c>
-      <c r="U13" s="10" t="e">
-        <f t="shared" ref="U13" si="37">(U12*U3)/(U2*U10)</f>
+      <c r="W13" s="5">
+        <f t="shared" ref="W13" si="39">(W12*W3)/(W2*W10)</f>
+        <v>1.8789706861386054E-4</v>
+      </c>
+      <c r="X13" s="5">
+        <f t="shared" ref="X13" si="40">(X12*X3)/(X2*X10)</f>
+        <v>1.2149721699098245E-4</v>
+      </c>
+      <c r="Y13" s="5">
+        <f t="shared" ref="Y13:AE13" si="41">(Y12*Y3)/(Y2*Y10)</f>
+        <v>1.9466819769296451E-4</v>
+      </c>
+      <c r="Z13" s="8">
+        <f t="shared" si="41"/>
+        <v>1.3280731248393579E-4</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="41"/>
+        <v>9.1656161148800119E-5</v>
+      </c>
+      <c r="AB13" s="8">
+        <f t="shared" si="41"/>
+        <v>4.8972926849123733E-4</v>
+      </c>
+      <c r="AC13" s="5">
+        <f t="shared" si="41"/>
+        <v>7.0013232633012786E-4</v>
+      </c>
+      <c r="AD13" s="5">
+        <f t="shared" si="41"/>
+        <v>2.3234104481837625E-4</v>
+      </c>
+      <c r="AE13" s="5">
+        <f t="shared" si="41"/>
+        <v>4.8894861504657238E-4</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" ref="AF13" si="42">(AF12*AF3)/(AF2*AF10)</f>
+        <v>2.2278968396551989E-4</v>
+      </c>
+      <c r="AG13" s="2">
+        <f t="shared" ref="AG13" si="43">(AG12*AG3)/(AG2*AG10)</f>
+        <v>1.575661559309388E-4</v>
+      </c>
+      <c r="AH13" s="15">
+        <f t="shared" ref="AH13" si="44">(AH12*AH3)/(AH2*AH10)</f>
+        <v>3.1300953142496009E-5</v>
+      </c>
+      <c r="AI13" s="14">
+        <f t="shared" ref="AI13" si="45">(AI12*AI3)/(AI2*AI10)</f>
+        <v>1.2058234586224094E-4</v>
+      </c>
+      <c r="AJ13" s="14">
+        <f t="shared" ref="AJ13" si="46">(AJ12*AJ3)/(AJ2*AJ10)</f>
+        <v>1.3904924199708317E-3</v>
+      </c>
+      <c r="AK13" s="14">
+        <f t="shared" ref="AK13:AT13" si="47">(AK12*AK3)/(AK2*AK10)</f>
+        <v>2.2540010215445227E-4</v>
+      </c>
+      <c r="AL13" s="15">
+        <f t="shared" si="47"/>
+        <v>5.7157900249159461E-4</v>
+      </c>
+      <c r="AM13" s="15" t="e">
+        <f t="shared" si="47"/>
         <v>#NUM!</v>
       </c>
-      <c r="V13" s="10">
-        <f t="shared" ref="V13" si="38">(V12*V3)/(V2*V10)</f>
-        <v>2.7984542205649281E-4</v>
-      </c>
-      <c r="W13" s="10">
-        <f t="shared" ref="W13" si="39">(W12*W3)/(W2*W10)</f>
-        <v>6.1349282678338946E-4</v>
-      </c>
-      <c r="X13" s="2">
-        <f t="shared" ref="X13" si="40">(X12*X3)/(X2*X10)</f>
-        <v>2.2278968396551989E-4</v>
-      </c>
-      <c r="Y13" s="2">
-        <f t="shared" ref="Y13" si="41">(Y12*Y3)/(Y2*Y10)</f>
-        <v>1.575661559309388E-4</v>
-      </c>
-      <c r="Z13" s="2">
-        <f t="shared" ref="Z13" si="42">(Z12*Z3)/(Z2*Z10)</f>
-        <v>1.7369186903103297E-4</v>
-      </c>
-      <c r="AA13" s="10">
-        <f t="shared" ref="AA13" si="43">(AA12*AA3)/(AA2*AA10)</f>
-        <v>5.8301138245532428E-4</v>
-      </c>
-      <c r="AB13" s="10">
-        <f t="shared" ref="AB13" si="44">(AB12*AB3)/(AB2*AB10)</f>
-        <v>3.1402524899596361E-4</v>
-      </c>
-      <c r="AC13" s="10" t="e">
-        <f t="shared" ref="AC13" si="45">(AC12*AC3)/(AC2*AC10)</f>
+      <c r="AN13" s="15">
+        <f t="shared" si="47"/>
+        <v>8.5124538102553115E-4</v>
+      </c>
+      <c r="AO13" s="14">
+        <f t="shared" si="47"/>
+        <v>1.0044114158813898E-3</v>
+      </c>
+      <c r="AP13" s="14">
+        <f t="shared" si="47"/>
+        <v>2.6870397456965765E-3</v>
+      </c>
+      <c r="AQ13" s="14">
+        <f t="shared" si="47"/>
+        <v>8.2240205173428858E-4</v>
+      </c>
+      <c r="AR13" s="15">
+        <f t="shared" si="47"/>
+        <v>5.1167001652121461E-4</v>
+      </c>
+      <c r="AS13" s="15">
+        <f t="shared" si="47"/>
+        <v>3.7510532035853958E-3</v>
+      </c>
+      <c r="AT13" s="15" t="e">
+        <f t="shared" si="47"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2364,232 +3110,264 @@
         <f>1/(D13*(D2*D10)^2)</f>
         <v>2.6734751509484847E-4</v>
       </c>
-      <c r="E14" s="9">
-        <f t="shared" ref="E14:G14" si="46">1/(E13*(E2*E10)^2)</f>
-        <v>6.3316340044196836E-5</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="46"/>
-        <v>1.3344743899941844E-4</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="46"/>
-        <v>8.7848430586356246E-5</v>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:G14" si="48">1/(E13*(E2*E10)^2)</f>
+        <v>8.1836542110448295E-5</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="48"/>
+        <v>1.6798244285410287E-4</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="48"/>
+        <v>1.0466277992688674E-4</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14" si="47">1/(H13*(H2*H10)^2)</f>
-        <v>4.053807728091156E-5</v>
+        <f t="shared" ref="H14" si="49">1/(H13*(H2*H10)^2)</f>
+        <v>1.5105073955868638E-4</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" ref="I14" si="48">1/(I13*(I2*I10)^2)</f>
-        <v>6.3140877204357298E-5</v>
+        <f t="shared" ref="I14" si="50">1/(I13*(I2*I10)^2)</f>
+        <v>5.9533433733690302E-5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14" si="49">1/(J13*(J2*J10)^2)</f>
-        <v>2.4937962965800783E-5</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" ref="K14" si="50">1/(K13*(K2*K10)^2)</f>
+        <f t="shared" ref="J14" si="51">1/(J13*(J2*J10)^2)</f>
+        <v>2.9919745685760199E-5</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" ref="K14" si="52">1/(K13*(K2*K10)^2)</f>
         <v>4.0196823934021006E-5</v>
       </c>
-      <c r="L14" s="9">
-        <f t="shared" ref="L14" si="51">1/(L13*(L2*L10)^2)</f>
+      <c r="L14" s="4">
+        <f t="shared" ref="L14" si="53">1/(L13*(L2*L10)^2)</f>
         <v>7.735090051207685E-5</v>
       </c>
-      <c r="M14" s="9">
-        <f t="shared" ref="M14" si="52">1/(M13*(M2*M10)^2)</f>
-        <v>6.8786525048082758E-5</v>
+      <c r="M14" s="4">
+        <f t="shared" ref="M14" si="54">1/(M13*(M2*M10)^2)</f>
+        <v>6.3074142750996936E-5</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14" si="53">1/(N13*(N2*N10)^2)</f>
-        <v>5.2843396691944994E-5</v>
+        <f t="shared" ref="N14" si="55">1/(N13*(N2*N10)^2)</f>
+        <v>5.2325333870160249E-5</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14" si="54">1/(O13*(O2*O10)^2)</f>
-        <v>8.3261484763552977E-5</v>
+        <f t="shared" ref="O14" si="56">1/(O13*(O2*O10)^2)</f>
+        <v>9.0996576860040957E-5</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14:Q14" si="55">1/(P13*(P2*P10)^2)</f>
-        <v>3.5779274827453158E-5</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="P14:S14" si="57">1/(P13*(P2*P10)^2)</f>
+        <v>4.1082288241392449E-5</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="57"/>
+        <v>1.7454482540722656E-5</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="57"/>
         <v>4.0294793958117422E-5</v>
       </c>
-      <c r="R14" s="9">
-        <f t="shared" ref="R14" si="56">1/(R13*(R2*R10)^2)</f>
+      <c r="S14" s="13">
+        <f t="shared" si="57"/>
+        <v>2.6616725920665769E-5</v>
+      </c>
+      <c r="T14" s="4">
+        <f t="shared" ref="T14" si="58">1/(T13*(T2*T10)^2)</f>
         <v>6.0713209778088475E-5</v>
       </c>
-      <c r="S14" s="9">
-        <f t="shared" ref="S14" si="57">1/(S13*(S2*S10)^2)</f>
-        <v>7.4547701462963049E-5</v>
-      </c>
-      <c r="T14" s="9">
-        <f t="shared" ref="T14" si="58">1/(T13*(T2*T10)^2)</f>
+      <c r="U14" s="4">
+        <f t="shared" ref="U14" si="59">1/(U13*(U2*U10)^2)</f>
+        <v>9.2731506583887323E-5</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" ref="V14" si="60">1/(V13*(V2*V10)^2)</f>
         <v>6.6010245414739881E-5</v>
       </c>
-      <c r="U14" s="11" t="e">
-        <f t="shared" ref="U14" si="59">1/(U13*(U2*U10)^2)</f>
+      <c r="W14" s="6">
+        <f t="shared" ref="W14" si="61">1/(W13*(W2*W10)^2)</f>
+        <v>1.8658744041549308E-4</v>
+      </c>
+      <c r="X14" s="6">
+        <f t="shared" ref="X14" si="62">1/(X13*(X2*X10)^2)</f>
+        <v>2.8855996838871316E-4</v>
+      </c>
+      <c r="Y14" s="6">
+        <f t="shared" ref="Y14:AE14" si="63">1/(Y13*(Y2*Y10)^2)</f>
+        <v>1.8009738370070496E-4</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="63"/>
+        <v>2.1133482297233211E-4</v>
+      </c>
+      <c r="AA14" s="9">
+        <f t="shared" si="63"/>
+        <v>3.0621847480234759E-4</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" si="63"/>
+        <v>5.7310868839210408E-5</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" si="63"/>
+        <v>3.2815689584560207E-5</v>
+      </c>
+      <c r="AD14" s="6">
+        <f t="shared" si="63"/>
+        <v>9.8886208878528408E-5</v>
+      </c>
+      <c r="AE14" s="6">
+        <f t="shared" si="63"/>
+        <v>4.6989242595108044E-5</v>
+      </c>
+      <c r="AF14" s="4">
+        <f t="shared" ref="AF14" si="64">1/(AF13*(AF2*AF10)^2)</f>
+        <v>8.5970510405259079E-5</v>
+      </c>
+      <c r="AG14" s="4">
+        <f t="shared" ref="AG14" si="65">1/(AG13*(AG2*AG10)^2)</f>
+        <v>1.2155746727702754E-4</v>
+      </c>
+      <c r="AH14" s="4">
+        <f t="shared" ref="AH14" si="66">1/(AH13*(AH2*AH10)^2)</f>
+        <v>6.1190925261436877E-4</v>
+      </c>
+      <c r="AI14" s="6">
+        <f t="shared" ref="AI14" si="67">1/(AI13*(AI2*AI10)^2)</f>
+        <v>1.3444247801659717E-4</v>
+      </c>
+      <c r="AJ14" s="6">
+        <f t="shared" ref="AJ14" si="68">1/(AJ13*(AJ2*AJ10)^2)</f>
+        <v>1.1658739846358969E-5</v>
+      </c>
+      <c r="AK14" s="6">
+        <f t="shared" ref="AK14:AT14" si="69">1/(AK13*(AK2*AK10)^2)</f>
+        <v>7.1922724203848928E-5</v>
+      </c>
+      <c r="AL14" s="4">
+        <f t="shared" si="69"/>
+        <v>2.4316242178761175E-5</v>
+      </c>
+      <c r="AM14" s="4" t="e">
+        <f t="shared" si="69"/>
         <v>#NUM!</v>
       </c>
-      <c r="V14" s="11">
-        <f t="shared" ref="V14" si="60">1/(V13*(V2*V10)^2)</f>
-        <v>1.2528070974538602E-4</v>
-      </c>
-      <c r="W14" s="11">
-        <f t="shared" ref="W14" si="61">1/(W13*(W2*W10)^2)</f>
-        <v>5.714693239047952E-5</v>
-      </c>
-      <c r="X14" s="9">
-        <f t="shared" ref="X14" si="62">1/(X13*(X2*X10)^2)</f>
-        <v>8.5970510405259079E-5</v>
-      </c>
-      <c r="Y14" s="9">
-        <f t="shared" ref="Y14" si="63">1/(Y13*(Y2*Y10)^2)</f>
-        <v>1.2155746727702754E-4</v>
-      </c>
-      <c r="Z14" s="9">
-        <f t="shared" ref="Z14" si="64">1/(Z13*(Z2*Z10)^2)</f>
-        <v>1.1027196005427314E-4</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" ref="AA14" si="65">1/(AA13*(AA2*AA10)^2)</f>
-        <v>2.7806299963648329E-5</v>
-      </c>
-      <c r="AB14" s="11">
-        <f t="shared" ref="AB14" si="66">1/(AB13*(AB2*AB10)^2)</f>
-        <v>5.1624477441246836E-5</v>
-      </c>
-      <c r="AC14" s="11" t="e">
-        <f t="shared" ref="AC14" si="67">1/(AC13*(AC2*AC10)^2)</f>
+      <c r="AN14" s="4">
+        <f t="shared" si="69"/>
+        <v>1.632743478987934E-5</v>
+      </c>
+      <c r="AO14" s="6">
+        <f t="shared" si="69"/>
+        <v>1.1994789164521236E-5</v>
+      </c>
+      <c r="AP14" s="6">
+        <f t="shared" si="69"/>
+        <v>4.4836341506412414E-6</v>
+      </c>
+      <c r="AQ14" s="6">
+        <f t="shared" si="69"/>
+        <v>1.4649407966005467E-5</v>
+      </c>
+      <c r="AR14" s="4">
+        <f t="shared" si="69"/>
+        <v>2.0605677507942276E-5</v>
+      </c>
+      <c r="AS14" s="4">
+        <f t="shared" si="69"/>
+        <v>2.8107592131303177E-6</v>
+      </c>
+      <c r="AT14" s="4" t="e">
+        <f t="shared" si="69"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="W15" t="s">
+    <row r="15" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AE15" t="s">
         <v>34</v>
       </c>
-      <c r="X15">
+      <c r="AF15">
         <v>2</v>
       </c>
-      <c r="Y15">
+      <c r="AG15">
         <v>2</v>
       </c>
-      <c r="Z15">
+      <c r="AH15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="W16" t="s">
+      <c r="AI15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>13.873244686379399</v>
+      </c>
+      <c r="X16">
+        <v>7.74419736594088</v>
+      </c>
+      <c r="Y16">
+        <v>12.163597810921299</v>
+      </c>
+      <c r="AE16" t="s">
         <v>33</v>
       </c>
-      <c r="X16">
-        <f>((X15*X3-1)*X12)/(1-X15/X3)</f>
+      <c r="AF16">
+        <f>((AF15*AF3-1)*AF12)/(1-AF15/AF3)</f>
         <v>3.4295807287641784</v>
       </c>
-      <c r="Y16">
-        <f t="shared" ref="Y16:Z16" si="68">((Y15*Y3-1)*Y12)/(1-Y15/Y3)</f>
+      <c r="AG16">
+        <f t="shared" ref="AG16:AL16" si="70">((AG15*AG3-1)*AG12)/(1-AG15/AG3)</f>
         <v>2.425542521842404</v>
       </c>
-      <c r="Z16">
-        <f t="shared" si="68"/>
-        <v>2.6737785887072514</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M17">
-        <v>214.269818258817</v>
-      </c>
+      <c r="AH16">
+        <f t="shared" si="70"/>
+        <v>0.48184073776983666</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="70"/>
+        <v>2.2492473832360482</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="70"/>
+        <v>25.937142080500156</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="70"/>
+        <v>4.2044346237154713</v>
+      </c>
+      <c r="AL16" t="e">
+        <f t="shared" si="70"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="14:37" x14ac:dyDescent="0.25">
       <c r="N17">
-        <v>572.973726710091</v>
+        <v>9.5951880358813693</v>
       </c>
       <c r="O17">
-        <v>206.72691257630601</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>230.03068767801099</v>
-      </c>
-      <c r="G18">
-        <v>222.850229898544</v>
-      </c>
-      <c r="H18">
-        <v>580.17431298450003</v>
-      </c>
-      <c r="I18">
-        <v>214.50870801561501</v>
-      </c>
-      <c r="M18">
-        <v>12.1061533994702</v>
-      </c>
-      <c r="N18">
-        <v>35.717434327525901</v>
-      </c>
-      <c r="O18">
-        <v>9.5640663746546704</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <v>16.8351888975427</v>
-      </c>
-      <c r="H19">
-        <v>26.429212311841798</v>
-      </c>
-      <c r="I19">
-        <v>20.9174497234822</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>230.03068767801099</v>
-      </c>
-      <c r="C20">
-        <v>585.46255785293101</v>
-      </c>
-      <c r="D20">
-        <v>222.57132003883899</v>
-      </c>
-      <c r="G20">
-        <v>23.0076849810422</v>
-      </c>
-      <c r="H20">
-        <v>74.348787010200795</v>
-      </c>
-      <c r="I20">
-        <v>21.198124828457399</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>29.0845160665958</v>
-      </c>
-      <c r="C22">
-        <v>104.90145010987101</v>
-      </c>
-      <c r="D22">
-        <v>34.562498232200603</v>
-      </c>
-      <c r="J22">
-        <v>219.267064920221</v>
-      </c>
-      <c r="K22">
-        <v>578.26723962338099</v>
-      </c>
-      <c r="L22">
-        <v>212.258683135209</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J23">
-        <v>13.0723963235423</v>
-      </c>
-      <c r="K23">
-        <v>45.756655052597601</v>
-      </c>
-      <c r="L23">
-        <v>15.0774898204276</v>
+        <v>12.439347909045701</v>
+      </c>
+      <c r="P17">
+        <v>6.6894654948402597</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="AI17">
+        <v>0.313909775</v>
+      </c>
+      <c r="AJ17">
+        <v>0.35862337799999999</v>
+      </c>
+      <c r="AK17">
+        <v>0.41546486199999999</v>
       </c>
     </row>
   </sheetData>

--- a/T2/T2Armonicos.xlsx
+++ b/T2/T2Armonicos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="36">
   <si>
     <t>Sistema 1 Fase A</t>
   </si>
@@ -140,11 +140,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="173" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +182,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +222,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -264,14 +289,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
@@ -286,12 +313,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Buena" xfId="5" builtinId="26"/>
     <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
+    <cellStyle name="Incorrecto" xfId="6" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="2" builtinId="10"/>
@@ -574,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1174,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT17"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AL15" sqref="AL15"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT19" sqref="AT19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,9 +1225,10 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1323,8 +1364,44 @@
       <c r="AT1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BD1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1463,19 +1540,55 @@
       <c r="AT2" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU2" s="5">
+        <v>35</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>35</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>35</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>33</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>33</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>33</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>39</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>39</v>
+      </c>
+      <c r="BC2" s="5">
+        <v>39</v>
+      </c>
+      <c r="BD2" s="20">
+        <v>37</v>
+      </c>
+      <c r="BE2" s="17">
+        <v>45</v>
+      </c>
+      <c r="BF2" s="17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="C3" s="1">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
-        <v>700</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="2">
         <v>700</v>
@@ -1496,13 +1609,13 @@
         <v>700</v>
       </c>
       <c r="K3" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="L3" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="M3" s="2">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N3" s="5">
         <v>200</v>
@@ -1568,34 +1681,34 @@
         <v>25</v>
       </c>
       <c r="AI3" s="5">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="AJ3" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AK3" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AM3" s="2">
         <v>50</v>
       </c>
       <c r="AN3" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AO3" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AP3" s="1">
         <v>50</v>
       </c>
       <c r="AQ3" s="1">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="AR3" s="2">
-        <v>50</v>
+        <v>3500</v>
       </c>
       <c r="AS3" s="2">
         <v>50</v>
@@ -1603,22 +1716,58 @@
       <c r="AT3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU3" s="5">
+        <v>50</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>50</v>
+      </c>
+      <c r="AW3" s="5">
+        <v>50</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>50</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>50</v>
+      </c>
+      <c r="BA3" s="5">
+        <v>50</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>50</v>
+      </c>
+      <c r="BC3" s="5">
+        <v>50</v>
+      </c>
+      <c r="BD3" s="19">
+        <v>700</v>
+      </c>
+      <c r="BE3" s="16">
+        <v>700</v>
+      </c>
+      <c r="BF3" s="16">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <f>6/100</f>
-        <v>0.06</v>
+        <f>4/100</f>
+        <v>0.04</v>
       </c>
       <c r="C4" s="1">
-        <f>5/100</f>
-        <v>0.05</v>
+        <f>3/100</f>
+        <v>0.03</v>
       </c>
       <c r="D4" s="1">
-        <f>6/100</f>
-        <v>0.06</v>
+        <f>4.7/100</f>
+        <v>4.7E-2</v>
       </c>
       <c r="E4" s="1">
         <v>0.04</v>
@@ -1724,8 +1873,8 @@
         <v>2E-3</v>
       </c>
       <c r="AI4" s="5">
-        <f>0.01</f>
-        <v>0.01</v>
+        <f>0.002</f>
+        <v>2E-3</v>
       </c>
       <c r="AJ4" s="5">
         <f>0.75/100</f>
@@ -1735,27 +1884,27 @@
         <v>0.01</v>
       </c>
       <c r="AL4" s="2">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AM4" s="2">
         <f>0.75/100</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AN4" s="2">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AO4" s="5">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="AP4" s="5">
         <f>0.75/100</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="AQ4" s="5">
-        <v>7.4999999999999997E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AR4" s="2">
-        <v>0.01</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="AS4" s="2">
         <f>0.75/100</f>
@@ -1764,19 +1913,58 @@
       <c r="AT4" s="2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AV4" s="5">
+        <f>0.25/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AW4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AY4" s="2">
+        <f>0.25/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BA4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BB4" s="5">
+        <f>0.25/100</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="BC4" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="BD4" s="19">
+        <v>1E-3</v>
+      </c>
+      <c r="BE4" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="BF4" s="16">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
-        <v>241.16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>583.48</v>
-      </c>
-      <c r="D5" s="1">
-        <v>232.59</v>
+      <c r="B5">
+        <v>133.057539939679</v>
+      </c>
+      <c r="C5">
+        <v>520.31279564882698</v>
+      </c>
+      <c r="D5">
+        <v>133.86259548736601</v>
       </c>
       <c r="E5" s="2">
         <v>230.03068767801099</v>
@@ -1904,19 +2092,55 @@
       <c r="AT5" s="2">
         <v>137.16105471839199</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU5" s="1">
+        <v>140.51184497629501</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>487.52224479085902</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>139.22143367747</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>140.51184497629501</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>487.52224479085902</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>139.22143367747</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>140.51184497629501</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>487.52224479085902</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>139.22143367747</v>
+      </c>
+      <c r="BD5" s="19">
+        <v>140.51184497629501</v>
+      </c>
+      <c r="BE5" s="16">
+        <v>140.51184497629501</v>
+      </c>
+      <c r="BF5">
+        <v>134.42277704208101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1">
-        <v>47.15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>163.35</v>
-      </c>
-      <c r="D6" s="1">
-        <v>50.42</v>
+      <c r="B6">
+        <v>17.947982480905999</v>
+      </c>
+      <c r="C6">
+        <v>32.87059664001</v>
+      </c>
+      <c r="D6">
+        <v>19.878251726003199</v>
       </c>
       <c r="E6" s="2">
         <v>29.0845160665958</v>
@@ -2044,22 +2268,58 @@
       <c r="AT6" s="2">
         <v>1.1943289278765801</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU6" s="1">
+        <v>1.46511646762458</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>4.2221503841834203</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>2.1083676929413602</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>3.0272065294660702</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>5.0237653999774601</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>2.7639414335400998</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>1.8840781243865901</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>1.76203188760514</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>1.5099764087905101</v>
+      </c>
+      <c r="BD6" s="21">
+        <v>1.7064493799202001</v>
+      </c>
+      <c r="BE6">
+        <v>1.4855508937142801</v>
+      </c>
+      <c r="BF6">
+        <v>1.3699551660124101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="1">
         <f>B6/B5</f>
-        <v>0.19551335213136506</v>
+        <v>0.13488887957076789</v>
       </c>
       <c r="C7" s="1">
         <f>C6/C5</f>
-        <v>0.27995818194282579</v>
+        <v>6.3174684372350604E-2</v>
       </c>
       <c r="D7" s="1">
         <f>D6/D5</f>
-        <v>0.21677630164667441</v>
+        <v>0.14849743241292013</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7:G7" si="0">E6/E5</f>
@@ -2190,7 +2450,7 @@
         <v>1.0661318461648653E-2</v>
       </c>
       <c r="AK7" s="5">
-        <f t="shared" ref="AK7:AT7" si="21">AK6/AK5</f>
+        <f t="shared" ref="AK7:BD7" si="21">AK6/AK5</f>
         <v>1.6695271453667223E-2</v>
       </c>
       <c r="AL7" s="2">
@@ -2229,8 +2489,56 @@
         <f t="shared" si="21"/>
         <v>8.7074930294804148E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU7" s="5">
+        <f t="shared" si="21"/>
+        <v>1.0426996157311521E-2</v>
+      </c>
+      <c r="AV7" s="5">
+        <f t="shared" si="21"/>
+        <v>8.6604261226986071E-3</v>
+      </c>
+      <c r="AW7" s="5">
+        <f t="shared" si="21"/>
+        <v>1.5143987798787869E-2</v>
+      </c>
+      <c r="AX7" s="2">
+        <f t="shared" si="21"/>
+        <v>2.1544137648870625E-2</v>
+      </c>
+      <c r="AY7" s="2">
+        <f t="shared" si="21"/>
+        <v>1.0304689588333745E-2</v>
+      </c>
+      <c r="AZ7" s="2">
+        <f t="shared" si="21"/>
+        <v>1.9852844210347938E-2</v>
+      </c>
+      <c r="BA7" s="5">
+        <f t="shared" si="21"/>
+        <v>1.3408678284058135E-2</v>
+      </c>
+      <c r="BB7" s="5">
+        <f t="shared" si="21"/>
+        <v>3.6142594649420145E-3</v>
+      </c>
+      <c r="BC7" s="5">
+        <f t="shared" si="21"/>
+        <v>1.084586165294509E-2</v>
+      </c>
+      <c r="BD7" s="19">
+        <f t="shared" si="21"/>
+        <v>1.2144523333303936E-2</v>
+      </c>
+      <c r="BE7" s="16">
+        <f t="shared" ref="BE7:BF7" si="22">BE6/BE5</f>
+        <v>1.0572424651920978E-2</v>
+      </c>
+      <c r="BF7" s="16">
+        <f t="shared" si="22"/>
+        <v>1.0191391638810929E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2369,8 +2677,44 @@
       <c r="AT8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="16">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2509,8 +2853,44 @@
       <c r="AT9" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AW9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="BA9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="BB9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="BC9" s="5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="BD9" s="19">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="BE9" s="16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="BF9" s="16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2519,183 +2899,231 @@
         <v>314.15926535897933</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:AT10" si="22">100*PI()</f>
+        <f t="shared" ref="C10:BF10" si="23">100*PI()</f>
         <v>314.15926535897933</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="L10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="Q10" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="R10" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="S10" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="W10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="X10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="Z10" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AA10" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AB10" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AC10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AD10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AE10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AF10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AG10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AH10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AM10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AN10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AO10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AP10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AQ10" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AR10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AS10" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>314.15926535897933</v>
       </c>
       <c r="AT10" s="2">
-        <f t="shared" si="22"/>
-        <v>314.15926535897933</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AU10" s="5">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AV10" s="5">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AW10" s="5">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AX10" s="2">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AY10" s="2">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="AZ10" s="2">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="BA10" s="5">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="BB10" s="5">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="BC10" s="5">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="BD10" s="19">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="BE10" s="16">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="BF10" s="16">
+        <f t="shared" si="23"/>
+        <v>314.15926535897933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2723,101 +3151,112 @@
       <c r="AR11" s="2"/>
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
-    </row>
-    <row r="12" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+      <c r="BD11" s="21"/>
+      <c r="BE11" s="18"/>
+    </row>
+    <row r="12" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1">
         <f>(B4*B5/SQRT(2))*(B8*B4*(B5/SQRT(2))+SQRT((B8*(B6/SQRT(2)))^2+((B2*B10*B9)^2)*(((B6/SQRT(2))^2)-((B4*B5)^2))))/(((B6/SQRT(2))^2-(B4*B5)^2))</f>
-        <v>6.4208597353385306E-3</v>
+        <v>6.1572634626386328E-3</v>
       </c>
       <c r="C12" s="1">
         <f>(C4*C5/SQRT(2))*(C8*C4*(C5/SQRT(2))+SQRT((C8*(C6/SQRT(2)))^2+((C2*C10*C9)^2)*(((C6/SQRT(2))^2)-((C4*C5)^2))))/(((C6/SQRT(2))^2-(C4*C5)^2))</f>
-        <v>3.4793040587356504E-3</v>
+        <v>1.2080840508906744E-2</v>
       </c>
       <c r="D12" s="1">
         <f>(D4*D5/SQRT(2))*(D8*D4*(D5/SQRT(2))+SQRT((D8*(D6/SQRT(2)))^2+((D2*D10*D9)^2)*(((D6/SQRT(2))^2)-((D4*D5)^2))))/(((D6/SQRT(2))^2-(D4*D5)^2))</f>
-        <v>5.6696295166319384E-3</v>
+        <v>6.6715980748053814E-3</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:AK12" si="23">(E4*E5/SQRT(2))*(E8*E4*(E5/SQRT(2))+SQRT((E8*(E6/SQRT(2)))^2+((E2*E10*E9)^2)*(((E6/SQRT(2))^2)-((E4*E5)^2))))/(((E6/SQRT(2))^2-(E4*E5)^2))</f>
+        <f t="shared" ref="E12:AJ12" si="24">(E4*E5/SQRT(2))*(E8*E4*(E5/SQRT(2))+SQRT((E8*(E6/SQRT(2)))^2+((E2*E10*E9)^2)*(((E6/SQRT(2))^2)-((E4*E5)^2))))/(((E6/SQRT(2))^2-(E4*E5)^2))</f>
         <v>1.111308951006937E-2</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.4139992383481416E-3</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.6894005519754375E-3</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.3006211986641287E-3</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0911717532132903E-2</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.1711815984089493E-2</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.5994463676834482E-2</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.8705187779828502E-2</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.5292723303209818E-2</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.3397247613411741E-2</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.3454009318367986E-2</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.9800404150347879E-2</v>
       </c>
       <c r="Q12" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8.1051420571229355E-2</v>
       </c>
       <c r="R12" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3.5109016979507281E-2</v>
       </c>
       <c r="S12" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3151188071665932E-2</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.9904586354378392E-2</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.2883979631801436E-2</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6.4295046763091945E-2</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.6725054761003583E-2</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2.1629369978726946E-2</v>
       </c>
       <c r="Y12" s="5">
@@ -2825,47 +3264,47 @@
         <v>1.7327765093193847E-2</v>
       </c>
       <c r="Z12" s="8">
-        <f t="shared" ref="Z12:AE12" si="24">(Z4*Z5/SQRT(2))*(Z8*Z4*(Z5/SQRT(2))+SQRT((Z8*(Z6/SQRT(2)))^2+((Z2*Z10*Z9)^2)*(((Z6/SQRT(2))^2)-((Z4*Z5)^2))))/(((Z6/SQRT(2))^2-(Z4*Z5)^2))</f>
+        <f t="shared" ref="Z12:AE12" si="25">(Z4*Z5/SQRT(2))*(Z8*Z4*(Z5/SQRT(2))+SQRT((Z8*(Z6/SQRT(2)))^2+((Z2*Z10*Z9)^2)*(((Z6/SQRT(2))^2)-((Z4*Z5)^2))))/(((Z6/SQRT(2))^2-(Z4*Z5)^2))</f>
         <v>2.2649437336023422E-2</v>
       </c>
       <c r="AA12" s="8">
+        <f t="shared" si="25"/>
+        <v>1.5631371794014116E-2</v>
+      </c>
+      <c r="AB12" s="8">
+        <f t="shared" si="25"/>
+        <v>8.3520193059027192E-2</v>
+      </c>
+      <c r="AC12" s="5">
+        <f t="shared" si="25"/>
+        <v>0.15396714010576229</v>
+      </c>
+      <c r="AD12" s="5">
+        <f t="shared" si="25"/>
+        <v>5.109446436701514E-2</v>
+      </c>
+      <c r="AE12" s="5">
+        <f t="shared" si="25"/>
+        <v>0.10752541639092508</v>
+      </c>
+      <c r="AF12" s="2">
         <f t="shared" si="24"/>
-        <v>1.5631371794014116E-2</v>
-      </c>
-      <c r="AB12" s="8">
+        <v>6.4392127968633556E-2</v>
+      </c>
+      <c r="AG12" s="2">
         <f t="shared" si="24"/>
-        <v>8.3520193059027192E-2</v>
-      </c>
-      <c r="AC12" s="5">
+        <v>4.5540798369285949E-2</v>
+      </c>
+      <c r="AH12" s="2">
         <f t="shared" si="24"/>
-        <v>0.15396714010576229</v>
-      </c>
-      <c r="AD12" s="5">
+        <v>9.0468056887397907E-3</v>
+      </c>
+      <c r="AI12" s="5">
         <f t="shared" si="24"/>
-        <v>5.109446436701514E-2</v>
-      </c>
-      <c r="AE12" s="5">
-        <f t="shared" si="24"/>
-        <v>0.10752541639092508</v>
-      </c>
-      <c r="AF12" s="2">
-        <f t="shared" si="23"/>
-        <v>6.4392127968633556E-2</v>
-      </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="23"/>
-        <v>4.5540798369285949E-2</v>
-      </c>
-      <c r="AH12" s="2">
-        <f t="shared" si="23"/>
-        <v>9.0468056887397907E-3</v>
-      </c>
-      <c r="AI12" s="5">
-        <f t="shared" si="23"/>
-        <v>9.4705152978359936E-2</v>
+        <v>1.4535981669815753E-2</v>
       </c>
       <c r="AJ12" s="5">
-        <f t="shared" si="23"/>
+        <f>(AJ4*AJ5/SQRT(2))*(AJ8*AJ4*(AJ5/SQRT(2))+SQRT((AJ8*(AJ6/SQRT(2)))^2+((AJ2*AJ10*AJ9)^2)*(((AJ6/SQRT(2))^2)-((AJ4*AJ5)^2))))/(((AJ6/SQRT(2))^2-(AJ4*AJ5)^2))</f>
         <v>1.0920901928631646</v>
       </c>
       <c r="AK12" s="5">
@@ -2873,413 +3312,557 @@
         <v>0.17702882626170405</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" ref="AL12:AT12" si="25">(AL4*AL5/SQRT(2))*(AL8*AL4*(AL5/SQRT(2))+SQRT((AL8*(AL6/SQRT(2)))^2+((AL2*AL10*AL9)^2)*(((AL6/SQRT(2))^2)-((AL4*AL5)^2))))/(((AL6/SQRT(2))^2-(AL4*AL5)^2))</f>
-        <v>9.6966093339383899E-2</v>
+        <f t="shared" ref="AL12:BD12" si="26">(AL4*AL5/SQRT(2))*(AL8*AL4*(AL5/SQRT(2))+SQRT((AL8*(AL6/SQRT(2)))^2+((AL2*AL10*AL9)^2)*(((AL6/SQRT(2))^2)-((AL4*AL5)^2))))/(((AL6/SQRT(2))^2-(AL4*AL5)^2))</f>
+        <v>3.9718141928289444E-2</v>
       </c>
       <c r="AM12" s="2" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#NUM!</v>
       </c>
       <c r="AN12" s="2">
-        <f t="shared" si="25"/>
-        <v>0.14441037671333087</v>
+        <f t="shared" si="26"/>
+        <v>4.9982119355772348E-2</v>
       </c>
       <c r="AO12" s="5">
-        <f t="shared" si="25"/>
-        <v>0.18301618846825241</v>
+        <f t="shared" si="26"/>
+        <v>1.0570836360916902E-2</v>
       </c>
       <c r="AP12" s="5">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.48961189084908074</v>
       </c>
       <c r="AQ12" s="5">
-        <f t="shared" si="25"/>
-        <v>7.4925915076742802E-2</v>
-      </c>
-      <c r="AR12" s="2">
-        <f t="shared" si="25"/>
-        <v>9.9662443427843389E-2</v>
+        <f t="shared" si="26"/>
+        <v>8.6555067261962371E-3</v>
+      </c>
+      <c r="AR12" s="26">
+        <f t="shared" si="26"/>
+        <v>4.0370687897870459E-4</v>
       </c>
       <c r="AS12" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.73062543363171706</v>
       </c>
       <c r="AT12" s="2" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU12" s="5">
+        <f t="shared" si="26"/>
+        <v>0.14348832880103779</v>
+      </c>
+      <c r="AV12" s="5">
+        <f t="shared" si="26"/>
+        <v>6.9540459687123718E-2</v>
+      </c>
+      <c r="AW12" s="5">
+        <f t="shared" si="26"/>
+        <v>8.2106755420861141E-2</v>
+      </c>
+      <c r="AX12" s="2">
+        <f t="shared" si="26"/>
+        <v>5.0943062491050128E-2</v>
+      </c>
+      <c r="AY12" s="2">
+        <f t="shared" si="26"/>
+        <v>5.3554382246514924E-2</v>
+      </c>
+      <c r="AZ12" s="2">
+        <f t="shared" si="26"/>
+        <v>5.5885497737206816E-2</v>
+      </c>
+      <c r="BA12" s="5">
+        <f t="shared" si="26"/>
+        <v>0.10754480200875384</v>
+      </c>
+      <c r="BB12" s="5">
+        <f t="shared" si="26"/>
+        <v>0.81654450786494082</v>
+      </c>
+      <c r="BC12" s="5">
+        <f t="shared" si="26"/>
+        <v>0.14898277826746248</v>
+      </c>
+      <c r="BD12" s="19">
+        <f t="shared" si="26"/>
+        <v>1.9273733331834249E-2</v>
+      </c>
+      <c r="BE12" s="16">
+        <f>(BE4*BE5/SQRT(2))*(BE8*BE4*(BE5/SQRT(2))+SQRT((BE8*(BE6/SQRT(2)))^2+((BE2*BE10*BE9)^2)*(((BE6/SQRT(2))^2)-((BE4*BE5)^2))))/(((BE6/SQRT(2))^2-(BE4*BE5)^2))</f>
+        <v>2.6985990222510903E-2</v>
+      </c>
+      <c r="BF12" s="16">
+        <f>(BF4*BF5/SQRT(2))*(BF8*BF4*(BF5/SQRT(2))+SQRT((BF8*(BF6/SQRT(2)))^2+((BF2*BF10*BF9)^2)*(((BF6/SQRT(2))^2)-((BF4*BF5)^2))))/(((BF6/SQRT(2))^2-(BF4*BF5)^2))</f>
+        <v>2.8014381008826514E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1">
         <f>(B12*B3)/(B2*B10)</f>
-        <v>4.7689206403012819E-3</v>
+        <v>9.7995891599805818E-3</v>
       </c>
       <c r="C13" s="1">
         <f>(C12*C3)/(C2*C10)</f>
-        <v>2.5841593841815402E-3</v>
+        <v>1.2818169891315446E-2</v>
       </c>
       <c r="D13" s="1">
         <f>(D12*D3)/(D2*D10)</f>
-        <v>4.2109646276678693E-3</v>
+        <v>1.0618178119276489E-2</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:G13" si="26">(E12*E3)/(E2*E10)</f>
+        <f t="shared" ref="E13:G13" si="27">(E12*E3)/(E2*E10)</f>
         <v>4.9523687599406429E-3</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2.4126612739008169E-3</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.8722909409865365E-3</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13" si="27">(H12*H3)/(H2*H10)</f>
+        <f t="shared" ref="H13" si="28">(H12*H3)/(H2*H10)</f>
         <v>1.3689302442663762E-3</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" ref="I13" si="28">(I12*I3)/(I2*I10)</f>
+        <f t="shared" ref="I13" si="29">(I12*I3)/(I2*I10)</f>
         <v>3.4733075657228975E-3</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" ref="J13" si="29">(J12*J3)/(J2*J10)</f>
+        <f t="shared" ref="J13" si="30">(J12*J3)/(J2*J10)</f>
         <v>6.9110856747389331E-3</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13" si="30">(K12*K3)/(K2*K10)</f>
-        <v>2.0831624793126858E-3</v>
+        <f t="shared" ref="K13" si="31">(K12*K3)/(K2*K10)</f>
+        <v>5.2079061982817148E-3</v>
       </c>
       <c r="L13" s="2">
-        <f t="shared" ref="L13" si="31">(L12*L3)/(L2*L10)</f>
-        <v>1.082553853317026E-3</v>
+        <f t="shared" ref="L13" si="32">(L12*L3)/(L2*L10)</f>
+        <v>2.7063846332925651E-3</v>
       </c>
       <c r="M13" s="2">
-        <f t="shared" ref="M13" si="32">(M12*M3)/(M2*M10)</f>
-        <v>1.3275886402049784E-3</v>
+        <f t="shared" ref="M13" si="33">(M12*M3)/(M2*M10)</f>
+        <v>2.2126477336749635E-3</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" ref="N13" si="33">(N12*N3)/(N2*N10)</f>
+        <f t="shared" ref="N13" si="34">(N12*N3)/(N2*N10)</f>
         <v>1.1457808038213937E-3</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ref="O13" si="34">(O12*O3)/(O2*O10)</f>
+        <f t="shared" ref="O13" si="35">(O12*O3)/(O2*O10)</f>
         <v>6.5885294997621111E-4</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" ref="P13:S13" si="35">(P12*P3)/(P2*P10)</f>
+        <f t="shared" ref="P13:S13" si="36">(P12*P3)/(P2*P10)</f>
         <v>1.4593481928197227E-3</v>
       </c>
       <c r="Q13" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>7.1665190158507136E-3</v>
       </c>
       <c r="R13" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>3.1043186663254826E-3</v>
       </c>
       <c r="S13" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>4.6995968404514544E-3</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" ref="T13" si="36">(T12*T3)/(T2*T10)</f>
+        <f t="shared" ref="T13" si="37">(T12*T3)/(T2*T10)</f>
         <v>7.4171069753957181E-4</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" ref="U13" si="37">(U12*U3)/(U2*U10)</f>
+        <f t="shared" ref="U13" si="38">(U12*U3)/(U2*U10)</f>
         <v>4.8561313013539327E-4</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" ref="V13" si="38">(V12*V3)/(V2*V10)</f>
+        <f t="shared" ref="V13" si="39">(V12*V3)/(V2*V10)</f>
         <v>6.8219163391137658E-4</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" ref="W13" si="39">(W12*W3)/(W2*W10)</f>
+        <f t="shared" ref="W13" si="40">(W12*W3)/(W2*W10)</f>
         <v>1.8789706861386054E-4</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" ref="X13" si="40">(X12*X3)/(X2*X10)</f>
+        <f t="shared" ref="X13" si="41">(X12*X3)/(X2*X10)</f>
         <v>1.2149721699098245E-4</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" ref="Y13:AE13" si="41">(Y12*Y3)/(Y2*Y10)</f>
+        <f t="shared" ref="Y13:AE13" si="42">(Y12*Y3)/(Y2*Y10)</f>
         <v>1.9466819769296451E-4</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>1.3280731248393579E-4</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9.1656161148800119E-5</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.8972926849123733E-4</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>7.0013232633012786E-4</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>2.3234104481837625E-4</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.8894861504657238E-4</v>
       </c>
       <c r="AF13" s="2">
-        <f t="shared" ref="AF13" si="42">(AF12*AF3)/(AF2*AF10)</f>
+        <f t="shared" ref="AF13" si="43">(AF12*AF3)/(AF2*AF10)</f>
         <v>2.2278968396551989E-4</v>
       </c>
       <c r="AG13" s="2">
-        <f t="shared" ref="AG13" si="43">(AG12*AG3)/(AG2*AG10)</f>
+        <f t="shared" ref="AG13" si="44">(AG12*AG3)/(AG2*AG10)</f>
         <v>1.575661559309388E-4</v>
       </c>
       <c r="AH13" s="15">
-        <f t="shared" ref="AH13" si="44">(AH12*AH3)/(AH2*AH10)</f>
+        <f t="shared" ref="AH13" si="45">(AH12*AH3)/(AH2*AH10)</f>
         <v>3.1300953142496009E-5</v>
       </c>
       <c r="AI13" s="14">
-        <f t="shared" ref="AI13" si="45">(AI12*AI3)/(AI2*AI10)</f>
-        <v>1.2058234586224094E-4</v>
+        <f t="shared" ref="AI13" si="46">(AI12*AI3)/(AI2*AI10)</f>
+        <v>1.2955450678488415E-3</v>
       </c>
       <c r="AJ13" s="14">
-        <f t="shared" ref="AJ13" si="46">(AJ12*AJ3)/(AJ2*AJ10)</f>
-        <v>1.3904924199708317E-3</v>
+        <f t="shared" ref="AJ13" si="47">(AJ12*AJ3)/(AJ2*AJ10)</f>
+        <v>2.7809848399416633E-3</v>
       </c>
       <c r="AK13" s="14">
-        <f t="shared" ref="AK13:AT13" si="47">(AK12*AK3)/(AK2*AK10)</f>
-        <v>2.2540010215445227E-4</v>
+        <f t="shared" ref="AK13:BD13" si="48">(AK12*AK3)/(AK2*AK10)</f>
+        <v>4.5080020430890455E-4</v>
       </c>
       <c r="AL13" s="15">
-        <f t="shared" si="47"/>
-        <v>5.7157900249159461E-4</v>
+        <f t="shared" si="48"/>
+        <v>4.6824730506020212E-4</v>
       </c>
       <c r="AM13" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#NUM!</v>
       </c>
       <c r="AN13" s="15">
-        <f t="shared" si="47"/>
-        <v>8.5124538102553115E-4</v>
+        <f t="shared" si="48"/>
+        <v>5.8925195271705688E-4</v>
       </c>
       <c r="AO13" s="14">
-        <f t="shared" si="47"/>
-        <v>1.0044114158813898E-3</v>
+        <f t="shared" si="48"/>
+        <v>2.3205529095937484E-4</v>
       </c>
       <c r="AP13" s="14">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.6870397456965765E-3</v>
       </c>
       <c r="AQ13" s="14">
-        <f t="shared" si="47"/>
-        <v>8.2240205173428858E-4</v>
+        <f t="shared" si="48"/>
+        <v>6.6503219055689359E-4</v>
       </c>
       <c r="AR13" s="15">
-        <f t="shared" si="47"/>
-        <v>5.1167001652121461E-4</v>
+        <f t="shared" si="48"/>
+        <v>1.4508503788633449E-4</v>
       </c>
       <c r="AS13" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3.7510532035853958E-3</v>
       </c>
       <c r="AT13" s="15" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU13" s="14">
+        <f t="shared" si="48"/>
+        <v>6.5248219441943803E-4</v>
+      </c>
+      <c r="AV13" s="14">
+        <f t="shared" si="48"/>
+        <v>3.1622022583109761E-4</v>
+      </c>
+      <c r="AW13" s="14">
+        <f t="shared" si="48"/>
+        <v>3.7336274247049499E-4</v>
+      </c>
+      <c r="AX13" s="15">
+        <f t="shared" si="48"/>
+        <v>2.4569212762696818E-4</v>
+      </c>
+      <c r="AY13" s="15">
+        <f t="shared" si="48"/>
+        <v>2.5828620178077854E-4</v>
+      </c>
+      <c r="AZ13" s="15">
+        <f t="shared" si="48"/>
+        <v>2.6952888521295139E-4</v>
+      </c>
+      <c r="BA13" s="14">
+        <f t="shared" si="48"/>
+        <v>4.3887914983416334E-4</v>
+      </c>
+      <c r="BB13" s="14">
+        <f t="shared" si="48"/>
+        <v>3.3322331969549831E-3</v>
+      </c>
+      <c r="BC13" s="14">
+        <f t="shared" si="48"/>
+        <v>6.0798322043155006E-4</v>
+      </c>
+      <c r="BD13" s="22">
+        <f t="shared" si="48"/>
+        <v>1.1606794335770336E-3</v>
+      </c>
+      <c r="BE13" s="24">
+        <f>(BE12*BE3)/(BE2*BE10)</f>
+        <v>1.3362078296442297E-3</v>
+      </c>
+      <c r="BF13" s="24">
+        <f>(BF12*BF3)/(BF2*BF10)</f>
+        <v>1.387128466955609E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1">
         <f>1/(B13*(B2*B10)^2)</f>
-        <v>2.3606828762161693E-4</v>
+        <v>1.1488144155642741E-4</v>
       </c>
       <c r="C14" s="1">
         <f>1/(C13*(C2*C10)^2)</f>
-        <v>4.3565073278785832E-4</v>
+        <v>8.7827742876309795E-5</v>
       </c>
       <c r="D14" s="1">
         <f>1/(D13*(D2*D10)^2)</f>
-        <v>2.6734751509484847E-4</v>
+        <v>1.0602486761034095E-4</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:G14" si="48">1/(E13*(E2*E10)^2)</f>
+        <f t="shared" ref="E14:G14" si="49">1/(E13*(E2*E10)^2)</f>
         <v>8.1836542110448295E-5</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.6798244285410287E-4</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.0466277992688674E-4</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" ref="H14" si="49">1/(H13*(H2*H10)^2)</f>
+        <f t="shared" ref="H14" si="50">1/(H13*(H2*H10)^2)</f>
         <v>1.5105073955868638E-4</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" ref="I14" si="50">1/(I13*(I2*I10)^2)</f>
+        <f t="shared" ref="I14" si="51">1/(I13*(I2*I10)^2)</f>
         <v>5.9533433733690302E-5</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" ref="J14" si="51">1/(J13*(J2*J10)^2)</f>
+        <f t="shared" ref="J14" si="52">1/(J13*(J2*J10)^2)</f>
         <v>2.9919745685760199E-5</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" ref="K14" si="52">1/(K13*(K2*K10)^2)</f>
-        <v>4.0196823934021006E-5</v>
+        <f t="shared" ref="K14" si="53">1/(K13*(K2*K10)^2)</f>
+        <v>1.6078729573608403E-5</v>
       </c>
       <c r="L14" s="4">
-        <f t="shared" ref="L14" si="53">1/(L13*(L2*L10)^2)</f>
-        <v>7.735090051207685E-5</v>
+        <f t="shared" ref="L14" si="54">1/(L13*(L2*L10)^2)</f>
+        <v>3.0940360204830744E-5</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14" si="54">1/(M13*(M2*M10)^2)</f>
-        <v>6.3074142750996936E-5</v>
+        <f t="shared" ref="M14" si="55">1/(M13*(M2*M10)^2)</f>
+        <v>3.7844485650598172E-5</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14" si="55">1/(N13*(N2*N10)^2)</f>
+        <f t="shared" ref="N14" si="56">1/(N13*(N2*N10)^2)</f>
         <v>5.2325333870160249E-5</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14" si="56">1/(O13*(O2*O10)^2)</f>
+        <f t="shared" ref="O14" si="57">1/(O13*(O2*O10)^2)</f>
         <v>9.0996576860040957E-5</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14:S14" si="57">1/(P13*(P2*P10)^2)</f>
+        <f t="shared" ref="P14:S14" si="58">1/(P13*(P2*P10)^2)</f>
         <v>4.1082288241392449E-5</v>
       </c>
       <c r="Q14" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1.7454482540722656E-5</v>
       </c>
       <c r="R14" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>4.0294793958117422E-5</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>2.6616725920665769E-5</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" ref="T14" si="58">1/(T13*(T2*T10)^2)</f>
+        <f t="shared" ref="T14" si="59">1/(T13*(T2*T10)^2)</f>
         <v>6.0713209778088475E-5</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" ref="U14" si="59">1/(U13*(U2*U10)^2)</f>
+        <f t="shared" ref="U14" si="60">1/(U13*(U2*U10)^2)</f>
         <v>9.2731506583887323E-5</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" ref="V14" si="60">1/(V13*(V2*V10)^2)</f>
+        <f t="shared" ref="V14" si="61">1/(V13*(V2*V10)^2)</f>
         <v>6.6010245414739881E-5</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" ref="W14" si="61">1/(W13*(W2*W10)^2)</f>
+        <f t="shared" ref="W14" si="62">1/(W13*(W2*W10)^2)</f>
         <v>1.8658744041549308E-4</v>
       </c>
       <c r="X14" s="6">
-        <f t="shared" ref="X14" si="62">1/(X13*(X2*X10)^2)</f>
+        <f t="shared" ref="X14" si="63">1/(X13*(X2*X10)^2)</f>
         <v>2.8855996838871316E-4</v>
       </c>
       <c r="Y14" s="6">
-        <f t="shared" ref="Y14:AE14" si="63">1/(Y13*(Y2*Y10)^2)</f>
+        <f t="shared" ref="Y14:AE14" si="64">1/(Y13*(Y2*Y10)^2)</f>
         <v>1.8009738370070496E-4</v>
       </c>
       <c r="Z14" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>2.1133482297233211E-4</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.0621847480234759E-4</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5.7310868839210408E-5</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>3.2815689584560207E-5</v>
       </c>
       <c r="AD14" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>9.8886208878528408E-5</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>4.6989242595108044E-5</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" ref="AF14" si="64">1/(AF13*(AF2*AF10)^2)</f>
+        <f t="shared" ref="AF14" si="65">1/(AF13*(AF2*AF10)^2)</f>
         <v>8.5970510405259079E-5</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" ref="AG14" si="65">1/(AG13*(AG2*AG10)^2)</f>
+        <f t="shared" ref="AG14" si="66">1/(AG13*(AG2*AG10)^2)</f>
         <v>1.2155746727702754E-4</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" ref="AH14" si="66">1/(AH13*(AH2*AH10)^2)</f>
+        <f t="shared" ref="AH14" si="67">1/(AH13*(AH2*AH10)^2)</f>
         <v>6.1190925261436877E-4</v>
       </c>
       <c r="AI14" s="6">
-        <f t="shared" ref="AI14" si="67">1/(AI13*(AI2*AI10)^2)</f>
-        <v>1.3444247801659717E-4</v>
+        <f t="shared" ref="AI14" si="68">1/(AI13*(AI2*AI10)^2)</f>
+        <v>1.2513180579423514E-5</v>
       </c>
       <c r="AJ14" s="6">
-        <f t="shared" ref="AJ14" si="68">1/(AJ13*(AJ2*AJ10)^2)</f>
-        <v>1.1658739846358969E-5</v>
+        <f t="shared" ref="AJ14" si="69">1/(AJ13*(AJ2*AJ10)^2)</f>
+        <v>5.8293699231794845E-6</v>
       </c>
       <c r="AK14" s="6">
-        <f t="shared" ref="AK14:AT14" si="69">1/(AK13*(AK2*AK10)^2)</f>
-        <v>7.1922724203848928E-5</v>
+        <f t="shared" ref="AK14:BD14" si="70">1/(AK13*(AK2*AK10)^2)</f>
+        <v>3.5961362101924464E-5</v>
       </c>
       <c r="AL14" s="4">
-        <f t="shared" si="69"/>
-        <v>2.4316242178761175E-5</v>
+        <f t="shared" si="70"/>
+        <v>2.9682292452475331E-5</v>
       </c>
       <c r="AM14" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>#NUM!</v>
       </c>
       <c r="AN14" s="4">
-        <f t="shared" si="69"/>
-        <v>1.632743478987934E-5</v>
+        <f t="shared" si="70"/>
+        <v>2.3586945083157178E-5</v>
       </c>
       <c r="AO14" s="6">
-        <f t="shared" si="69"/>
-        <v>1.1994789164521236E-5</v>
+        <f t="shared" si="70"/>
+        <v>5.1917381922762016E-5</v>
       </c>
       <c r="AP14" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>4.4836341506412414E-6</v>
       </c>
       <c r="AQ14" s="6">
-        <f t="shared" si="69"/>
-        <v>1.4649407966005467E-5</v>
+        <f t="shared" si="70"/>
+        <v>1.8115969931992103E-5</v>
       </c>
       <c r="AR14" s="4">
-        <f t="shared" si="69"/>
-        <v>2.0605677507942276E-5</v>
+        <f t="shared" si="70"/>
+        <v>7.2669845936696091E-5</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>2.8107592131303177E-6</v>
       </c>
       <c r="AT14" s="4" t="e">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AU14" s="6">
+        <f t="shared" si="70"/>
+        <v>1.2676387344771912E-5</v>
+      </c>
+      <c r="AV14" s="6">
+        <f t="shared" si="70"/>
+        <v>2.6156192287476941E-5</v>
+      </c>
+      <c r="AW14" s="6">
+        <f t="shared" si="70"/>
+        <v>2.215303267085145E-5</v>
+      </c>
+      <c r="AX14" s="4">
+        <f t="shared" si="70"/>
+        <v>3.7868764283561241E-5</v>
+      </c>
+      <c r="AY14" s="4">
+        <f t="shared" si="70"/>
+        <v>3.6022277625690424E-5</v>
+      </c>
+      <c r="AZ14" s="4">
+        <f t="shared" si="70"/>
+        <v>3.4519703741887565E-5</v>
+      </c>
+      <c r="BA14" s="6">
+        <f t="shared" si="70"/>
+        <v>1.5178403420680773E-5</v>
+      </c>
+      <c r="BB14" s="6">
+        <f t="shared" si="70"/>
+        <v>1.999105223246573E-6</v>
+      </c>
+      <c r="BC14" s="6">
+        <f t="shared" si="70"/>
+        <v>1.0956691838271413E-5</v>
+      </c>
+      <c r="BD14" s="23">
+        <f t="shared" si="70"/>
+        <v>6.3765316163288116E-6</v>
+      </c>
+      <c r="BE14" s="25">
+        <f t="shared" ref="BE14:BF14" si="71">1/(BE13*(BE2*BE10)^2)</f>
+        <v>3.7445636304414792E-6</v>
+      </c>
+      <c r="BF14" s="25">
+        <f t="shared" si="71"/>
+        <v>3.6071029906684549E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="AE15" t="s">
         <v>34</v>
       </c>
@@ -3305,7 +3888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="W16">
         <v>13.873244686379399</v>
       </c>
@@ -3323,27 +3906,27 @@
         <v>3.4295807287641784</v>
       </c>
       <c r="AG16">
-        <f t="shared" ref="AG16:AL16" si="70">((AG15*AG3-1)*AG12)/(1-AG15/AG3)</f>
+        <f t="shared" ref="AG16:AL16" si="72">((AG15*AG3-1)*AG12)/(1-AG15/AG3)</f>
         <v>2.425542521842404</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>0.48184073776983666</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="70"/>
-        <v>2.2492473832360482</v>
+        <f t="shared" si="72"/>
+        <v>20.394107233883332</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="70"/>
-        <v>25.937142080500156</v>
+        <f t="shared" si="72"/>
+        <v>47.323908357403802</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="70"/>
-        <v>4.2044346237154713</v>
+        <f t="shared" si="72"/>
+        <v>7.6712491380071759</v>
       </c>
       <c r="AL16" t="e">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>#VALUE!</v>
       </c>
     </row>
